--- a/simulation/manage/simulation/sidechainbc.xlsx
+++ b/simulation/manage/simulation/sidechainbc.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/simulation/manage/simulation/sidechainbc.xlsx
+++ b/simulation/manage/simulation/sidechainbc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>OverallBlockSpaceFull</t>
+  </si>
+  <si>
+    <t>2022-08-31T18:05:37-04:00</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:56205</t>
+  </si>
+  <si>
+    <t>2022-08-31T18:05:38-04:00</t>
+  </si>
+  <si>
+    <t>2022-08-31T18:05:40-04:00</t>
+  </si>
+  <si>
+    <t>2022-08-31T18:05:41-04:00</t>
+  </si>
+  <si>
+    <t>2022-08-31T18:05:42-04:00</t>
   </si>
 </sst>
 </file>
@@ -390,7 +408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8B0000"/>
     <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
@@ -399,37 +417,84 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D1" t="str">
+        <v>IssuedSCRoundNumber</v>
+      </c>
+      <c r="E1" t="str">
+        <v>ServAgrId</v>
+      </c>
+      <c r="F1" t="str">
+        <v>MC Round#</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <cols>
-    <col customWidth="true" max="1" min="1" width="25"/>
-    <col customWidth="true" max="2" min="2" width="10"/>
-    <col customWidth="true" max="3" min="3" width="25"/>
+    <col customWidth="true" max="2" min="1" width="10"/>
+    <col customWidth="true" max="3" min="3" width="40"/>
     <col customWidth="true" max="4" min="4" width="15"/>
-    <col customWidth="true" max="703" min="5" width="25"/>
+    <col customWidth="true" max="5" min="5" width="60"/>
+    <col customWidth="true" max="6" min="6" width="10"/>
+    <col customWidth="true" max="7" min="7" width="20"/>
+    <col customWidth="true" max="8" min="8" width="10"/>
+    <col customWidth="true" max="9" min="9" width="20"/>
+    <col customWidth="true" max="703" min="10" width="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1124,756 +1189,135 @@
       <c r="ZZ1" s="1"/>
       <c r="AAA1" s="1"/>
     </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
-  <sheetPr>
-    <tabColor rgb="FFFF66FF"/>
-    <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col customWidth="true" max="2" min="1" width="10"/>
-    <col customWidth="true" max="3" min="3" width="40"/>
-    <col customWidth="true" max="4" min="4" width="15"/>
-    <col customWidth="true" max="5" min="5" width="60"/>
-    <col customWidth="true" max="6" min="6" width="10"/>
-    <col customWidth="true" max="7" min="7" width="20"/>
-    <col customWidth="true" max="8" min="8" width="10"/>
-    <col customWidth="true" max="9" min="9" width="20"/>
-    <col customWidth="true" max="703" min="10" width="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
-      <c r="IW1" s="1"/>
-      <c r="IX1" s="1"/>
-      <c r="IY1" s="1"/>
-      <c r="IZ1" s="1"/>
-      <c r="JA1" s="1"/>
-      <c r="JB1" s="1"/>
-      <c r="JC1" s="1"/>
-      <c r="JD1" s="1"/>
-      <c r="JE1" s="1"/>
-      <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
-      <c r="JH1" s="1"/>
-      <c r="JI1" s="1"/>
-      <c r="JJ1" s="1"/>
-      <c r="JK1" s="1"/>
-      <c r="JL1" s="1"/>
-      <c r="JM1" s="1"/>
-      <c r="JN1" s="1"/>
-      <c r="JO1" s="1"/>
-      <c r="JP1" s="1"/>
-      <c r="JQ1" s="1"/>
-      <c r="JR1" s="1"/>
-      <c r="JS1" s="1"/>
-      <c r="JT1" s="1"/>
-      <c r="JU1" s="1"/>
-      <c r="JV1" s="1"/>
-      <c r="JW1" s="1"/>
-      <c r="JX1" s="1"/>
-      <c r="JY1" s="1"/>
-      <c r="JZ1" s="1"/>
-      <c r="KA1" s="1"/>
-      <c r="KB1" s="1"/>
-      <c r="KC1" s="1"/>
-      <c r="KD1" s="1"/>
-      <c r="KE1" s="1"/>
-      <c r="KF1" s="1"/>
-      <c r="KG1" s="1"/>
-      <c r="KH1" s="1"/>
-      <c r="KI1" s="1"/>
-      <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
-      <c r="KL1" s="1"/>
-      <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
-      <c r="KO1" s="1"/>
-      <c r="KP1" s="1"/>
-      <c r="KQ1" s="1"/>
-      <c r="KR1" s="1"/>
-      <c r="KS1" s="1"/>
-      <c r="KT1" s="1"/>
-      <c r="KU1" s="1"/>
-      <c r="KV1" s="1"/>
-      <c r="KW1" s="1"/>
-      <c r="KX1" s="1"/>
-      <c r="KY1" s="1"/>
-      <c r="KZ1" s="1"/>
-      <c r="LA1" s="1"/>
-      <c r="LB1" s="1"/>
-      <c r="LC1" s="1"/>
-      <c r="LD1" s="1"/>
-      <c r="LE1" s="1"/>
-      <c r="LF1" s="1"/>
-      <c r="LG1" s="1"/>
-      <c r="LH1" s="1"/>
-      <c r="LI1" s="1"/>
-      <c r="LJ1" s="1"/>
-      <c r="LK1" s="1"/>
-      <c r="LL1" s="1"/>
-      <c r="LM1" s="1"/>
-      <c r="LN1" s="1"/>
-      <c r="LO1" s="1"/>
-      <c r="LP1" s="1"/>
-      <c r="LQ1" s="1"/>
-      <c r="LR1" s="1"/>
-      <c r="LS1" s="1"/>
-      <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
-      <c r="LV1" s="1"/>
-      <c r="LW1" s="1"/>
-      <c r="LX1" s="1"/>
-      <c r="LY1" s="1"/>
-      <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
-      <c r="MB1" s="1"/>
-      <c r="MC1" s="1"/>
-      <c r="MD1" s="1"/>
-      <c r="ME1" s="1"/>
-      <c r="MF1" s="1"/>
-      <c r="MG1" s="1"/>
-      <c r="MH1" s="1"/>
-      <c r="MI1" s="1"/>
-      <c r="MJ1" s="1"/>
-      <c r="MK1" s="1"/>
-      <c r="ML1" s="1"/>
-      <c r="MM1" s="1"/>
-      <c r="MN1" s="1"/>
-      <c r="MO1" s="1"/>
-      <c r="MP1" s="1"/>
-      <c r="MQ1" s="1"/>
-      <c r="MR1" s="1"/>
-      <c r="MS1" s="1"/>
-      <c r="MT1" s="1"/>
-      <c r="MU1" s="1"/>
-      <c r="MV1" s="1"/>
-      <c r="MW1" s="1"/>
-      <c r="MX1" s="1"/>
-      <c r="MY1" s="1"/>
-      <c r="MZ1" s="1"/>
-      <c r="NA1" s="1"/>
-      <c r="NB1" s="1"/>
-      <c r="NC1" s="1"/>
-      <c r="ND1" s="1"/>
-      <c r="NE1" s="1"/>
-      <c r="NF1" s="1"/>
-      <c r="NG1" s="1"/>
-      <c r="NH1" s="1"/>
-      <c r="NI1" s="1"/>
-      <c r="NJ1" s="1"/>
-      <c r="NK1" s="1"/>
-      <c r="NL1" s="1"/>
-      <c r="NM1" s="1"/>
-      <c r="NN1" s="1"/>
-      <c r="NO1" s="1"/>
-      <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
-      <c r="NR1" s="1"/>
-      <c r="NS1" s="1"/>
-      <c r="NT1" s="1"/>
-      <c r="NU1" s="1"/>
-      <c r="NV1" s="1"/>
-      <c r="NW1" s="1"/>
-      <c r="NX1" s="1"/>
-      <c r="NY1" s="1"/>
-      <c r="NZ1" s="1"/>
-      <c r="OA1" s="1"/>
-      <c r="OB1" s="1"/>
-      <c r="OC1" s="1"/>
-      <c r="OD1" s="1"/>
-      <c r="OE1" s="1"/>
-      <c r="OF1" s="1"/>
-      <c r="OG1" s="1"/>
-      <c r="OH1" s="1"/>
-      <c r="OI1" s="1"/>
-      <c r="OJ1" s="1"/>
-      <c r="OK1" s="1"/>
-      <c r="OL1" s="1"/>
-      <c r="OM1" s="1"/>
-      <c r="ON1" s="1"/>
-      <c r="OO1" s="1"/>
-      <c r="OP1" s="1"/>
-      <c r="OQ1" s="1"/>
-      <c r="OR1" s="1"/>
-      <c r="OS1" s="1"/>
-      <c r="OT1" s="1"/>
-      <c r="OU1" s="1"/>
-      <c r="OV1" s="1"/>
-      <c r="OW1" s="1"/>
-      <c r="OX1" s="1"/>
-      <c r="OY1" s="1"/>
-      <c r="OZ1" s="1"/>
-      <c r="PA1" s="1"/>
-      <c r="PB1" s="1"/>
-      <c r="PC1" s="1"/>
-      <c r="PD1" s="1"/>
-      <c r="PE1" s="1"/>
-      <c r="PF1" s="1"/>
-      <c r="PG1" s="1"/>
-      <c r="PH1" s="1"/>
-      <c r="PI1" s="1"/>
-      <c r="PJ1" s="1"/>
-      <c r="PK1" s="1"/>
-      <c r="PL1" s="1"/>
-      <c r="PM1" s="1"/>
-      <c r="PN1" s="1"/>
-      <c r="PO1" s="1"/>
-      <c r="PP1" s="1"/>
-      <c r="PQ1" s="1"/>
-      <c r="PR1" s="1"/>
-      <c r="PS1" s="1"/>
-      <c r="PT1" s="1"/>
-      <c r="PU1" s="1"/>
-      <c r="PV1" s="1"/>
-      <c r="PW1" s="1"/>
-      <c r="PX1" s="1"/>
-      <c r="PY1" s="1"/>
-      <c r="PZ1" s="1"/>
-      <c r="QA1" s="1"/>
-      <c r="QB1" s="1"/>
-      <c r="QC1" s="1"/>
-      <c r="QD1" s="1"/>
-      <c r="QE1" s="1"/>
-      <c r="QF1" s="1"/>
-      <c r="QG1" s="1"/>
-      <c r="QH1" s="1"/>
-      <c r="QI1" s="1"/>
-      <c r="QJ1" s="1"/>
-      <c r="QK1" s="1"/>
-      <c r="QL1" s="1"/>
-      <c r="QM1" s="1"/>
-      <c r="QN1" s="1"/>
-      <c r="QO1" s="1"/>
-      <c r="QP1" s="1"/>
-      <c r="QQ1" s="1"/>
-      <c r="QR1" s="1"/>
-      <c r="QS1" s="1"/>
-      <c r="QT1" s="1"/>
-      <c r="QU1" s="1"/>
-      <c r="QV1" s="1"/>
-      <c r="QW1" s="1"/>
-      <c r="QX1" s="1"/>
-      <c r="QY1" s="1"/>
-      <c r="QZ1" s="1"/>
-      <c r="RA1" s="1"/>
-      <c r="RB1" s="1"/>
-      <c r="RC1" s="1"/>
-      <c r="RD1" s="1"/>
-      <c r="RE1" s="1"/>
-      <c r="RF1" s="1"/>
-      <c r="RG1" s="1"/>
-      <c r="RH1" s="1"/>
-      <c r="RI1" s="1"/>
-      <c r="RJ1" s="1"/>
-      <c r="RK1" s="1"/>
-      <c r="RL1" s="1"/>
-      <c r="RM1" s="1"/>
-      <c r="RN1" s="1"/>
-      <c r="RO1" s="1"/>
-      <c r="RP1" s="1"/>
-      <c r="RQ1" s="1"/>
-      <c r="RR1" s="1"/>
-      <c r="RS1" s="1"/>
-      <c r="RT1" s="1"/>
-      <c r="RU1" s="1"/>
-      <c r="RV1" s="1"/>
-      <c r="RW1" s="1"/>
-      <c r="RX1" s="1"/>
-      <c r="RY1" s="1"/>
-      <c r="RZ1" s="1"/>
-      <c r="SA1" s="1"/>
-      <c r="SB1" s="1"/>
-      <c r="SC1" s="1"/>
-      <c r="SD1" s="1"/>
-      <c r="SE1" s="1"/>
-      <c r="SF1" s="1"/>
-      <c r="SG1" s="1"/>
-      <c r="SH1" s="1"/>
-      <c r="SI1" s="1"/>
-      <c r="SJ1" s="1"/>
-      <c r="SK1" s="1"/>
-      <c r="SL1" s="1"/>
-      <c r="SM1" s="1"/>
-      <c r="SN1" s="1"/>
-      <c r="SO1" s="1"/>
-      <c r="SP1" s="1"/>
-      <c r="SQ1" s="1"/>
-      <c r="SR1" s="1"/>
-      <c r="SS1" s="1"/>
-      <c r="ST1" s="1"/>
-      <c r="SU1" s="1"/>
-      <c r="SV1" s="1"/>
-      <c r="SW1" s="1"/>
-      <c r="SX1" s="1"/>
-      <c r="SY1" s="1"/>
-      <c r="SZ1" s="1"/>
-      <c r="TA1" s="1"/>
-      <c r="TB1" s="1"/>
-      <c r="TC1" s="1"/>
-      <c r="TD1" s="1"/>
-      <c r="TE1" s="1"/>
-      <c r="TF1" s="1"/>
-      <c r="TG1" s="1"/>
-      <c r="TH1" s="1"/>
-      <c r="TI1" s="1"/>
-      <c r="TJ1" s="1"/>
-      <c r="TK1" s="1"/>
-      <c r="TL1" s="1"/>
-      <c r="TM1" s="1"/>
-      <c r="TN1" s="1"/>
-      <c r="TO1" s="1"/>
-      <c r="TP1" s="1"/>
-      <c r="TQ1" s="1"/>
-      <c r="TR1" s="1"/>
-      <c r="TS1" s="1"/>
-      <c r="TT1" s="1"/>
-      <c r="TU1" s="1"/>
-      <c r="TV1" s="1"/>
-      <c r="TW1" s="1"/>
-      <c r="TX1" s="1"/>
-      <c r="TY1" s="1"/>
-      <c r="TZ1" s="1"/>
-      <c r="UA1" s="1"/>
-      <c r="UB1" s="1"/>
-      <c r="UC1" s="1"/>
-      <c r="UD1" s="1"/>
-      <c r="UE1" s="1"/>
-      <c r="UF1" s="1"/>
-      <c r="UG1" s="1"/>
-      <c r="UH1" s="1"/>
-      <c r="UI1" s="1"/>
-      <c r="UJ1" s="1"/>
-      <c r="UK1" s="1"/>
-      <c r="UL1" s="1"/>
-      <c r="UM1" s="1"/>
-      <c r="UN1" s="1"/>
-      <c r="UO1" s="1"/>
-      <c r="UP1" s="1"/>
-      <c r="UQ1" s="1"/>
-      <c r="UR1" s="1"/>
-      <c r="US1" s="1"/>
-      <c r="UT1" s="1"/>
-      <c r="UU1" s="1"/>
-      <c r="UV1" s="1"/>
-      <c r="UW1" s="1"/>
-      <c r="UX1" s="1"/>
-      <c r="UY1" s="1"/>
-      <c r="UZ1" s="1"/>
-      <c r="VA1" s="1"/>
-      <c r="VB1" s="1"/>
-      <c r="VC1" s="1"/>
-      <c r="VD1" s="1"/>
-      <c r="VE1" s="1"/>
-      <c r="VF1" s="1"/>
-      <c r="VG1" s="1"/>
-      <c r="VH1" s="1"/>
-      <c r="VI1" s="1"/>
-      <c r="VJ1" s="1"/>
-      <c r="VK1" s="1"/>
-      <c r="VL1" s="1"/>
-      <c r="VM1" s="1"/>
-      <c r="VN1" s="1"/>
-      <c r="VO1" s="1"/>
-      <c r="VP1" s="1"/>
-      <c r="VQ1" s="1"/>
-      <c r="VR1" s="1"/>
-      <c r="VS1" s="1"/>
-      <c r="VT1" s="1"/>
-      <c r="VU1" s="1"/>
-      <c r="VV1" s="1"/>
-      <c r="VW1" s="1"/>
-      <c r="VX1" s="1"/>
-      <c r="VY1" s="1"/>
-      <c r="VZ1" s="1"/>
-      <c r="WA1" s="1"/>
-      <c r="WB1" s="1"/>
-      <c r="WC1" s="1"/>
-      <c r="WD1" s="1"/>
-      <c r="WE1" s="1"/>
-      <c r="WF1" s="1"/>
-      <c r="WG1" s="1"/>
-      <c r="WH1" s="1"/>
-      <c r="WI1" s="1"/>
-      <c r="WJ1" s="1"/>
-      <c r="WK1" s="1"/>
-      <c r="WL1" s="1"/>
-      <c r="WM1" s="1"/>
-      <c r="WN1" s="1"/>
-      <c r="WO1" s="1"/>
-      <c r="WP1" s="1"/>
-      <c r="WQ1" s="1"/>
-      <c r="WR1" s="1"/>
-      <c r="WS1" s="1"/>
-      <c r="WT1" s="1"/>
-      <c r="WU1" s="1"/>
-      <c r="WV1" s="1"/>
-      <c r="WW1" s="1"/>
-      <c r="WX1" s="1"/>
-      <c r="WY1" s="1"/>
-      <c r="WZ1" s="1"/>
-      <c r="XA1" s="1"/>
-      <c r="XB1" s="1"/>
-      <c r="XC1" s="1"/>
-      <c r="XD1" s="1"/>
-      <c r="XE1" s="1"/>
-      <c r="XF1" s="1"/>
-      <c r="XG1" s="1"/>
-      <c r="XH1" s="1"/>
-      <c r="XI1" s="1"/>
-      <c r="XJ1" s="1"/>
-      <c r="XK1" s="1"/>
-      <c r="XL1" s="1"/>
-      <c r="XM1" s="1"/>
-      <c r="XN1" s="1"/>
-      <c r="XO1" s="1"/>
-      <c r="XP1" s="1"/>
-      <c r="XQ1" s="1"/>
-      <c r="XR1" s="1"/>
-      <c r="XS1" s="1"/>
-      <c r="XT1" s="1"/>
-      <c r="XU1" s="1"/>
-      <c r="XV1" s="1"/>
-      <c r="XW1" s="1"/>
-      <c r="XX1" s="1"/>
-      <c r="XY1" s="1"/>
-      <c r="XZ1" s="1"/>
-      <c r="YA1" s="1"/>
-      <c r="YB1" s="1"/>
-      <c r="YC1" s="1"/>
-      <c r="YD1" s="1"/>
-      <c r="YE1" s="1"/>
-      <c r="YF1" s="1"/>
-      <c r="YG1" s="1"/>
-      <c r="YH1" s="1"/>
-      <c r="YI1" s="1"/>
-      <c r="YJ1" s="1"/>
-      <c r="YK1" s="1"/>
-      <c r="YL1" s="1"/>
-      <c r="YM1" s="1"/>
-      <c r="YN1" s="1"/>
-      <c r="YO1" s="1"/>
-      <c r="YP1" s="1"/>
-      <c r="YQ1" s="1"/>
-      <c r="YR1" s="1"/>
-      <c r="YS1" s="1"/>
-      <c r="YT1" s="1"/>
-      <c r="YU1" s="1"/>
-      <c r="YV1" s="1"/>
-      <c r="YW1" s="1"/>
-      <c r="YX1" s="1"/>
-      <c r="YY1" s="1"/>
-      <c r="YZ1" s="1"/>
-      <c r="ZA1" s="1"/>
-      <c r="ZB1" s="1"/>
-      <c r="ZC1" s="1"/>
-      <c r="ZD1" s="1"/>
-      <c r="ZE1" s="1"/>
-      <c r="ZF1" s="1"/>
-      <c r="ZG1" s="1"/>
-      <c r="ZH1" s="1"/>
-      <c r="ZI1" s="1"/>
-      <c r="ZJ1" s="1"/>
-      <c r="ZK1" s="1"/>
-      <c r="ZL1" s="1"/>
-      <c r="ZM1" s="1"/>
-      <c r="ZN1" s="1"/>
-      <c r="ZO1" s="1"/>
-      <c r="ZP1" s="1"/>
-      <c r="ZQ1" s="1"/>
-      <c r="ZR1" s="1"/>
-      <c r="ZS1" s="1"/>
-      <c r="ZT1" s="1"/>
-      <c r="ZU1" s="1"/>
-      <c r="ZV1" s="1"/>
-      <c r="ZW1" s="1"/>
-      <c r="ZX1" s="1"/>
-      <c r="ZY1" s="1"/>
-      <c r="ZZ1" s="1"/>
-      <c r="AAA1" s="1"/>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>9223372036</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -2608,6 +2052,91 @@
       <c r="ZZ1" s="1"/>
       <c r="AAA1" s="1"/>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>=SUM(RoundTable!B2:B2)</f>
+      </c>
+      <c r="C2">
+        <f>=SUM(RoundTable!D2:D2)</f>
+      </c>
+      <c r="D2">
+        <f>=AVERAGE(RoundTable!F2:F2)</f>
+      </c>
+      <c r="E2">
+        <f>=SUM(RoundTable!H2:H2)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>=SUM(RoundTable!B2:B3)</f>
+      </c>
+      <c r="C3">
+        <f>=SUM(RoundTable!D2:D3)</f>
+      </c>
+      <c r="D3">
+        <f>=AVERAGE(RoundTable!F2:F3)</f>
+      </c>
+      <c r="E3">
+        <f>=SUM(RoundTable!H2:H3)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>=SUM(RoundTable!B2:B4)</f>
+      </c>
+      <c r="C4">
+        <f>=SUM(RoundTable!D2:D4)</f>
+      </c>
+      <c r="D4">
+        <f>=AVERAGE(RoundTable!F2:F4)</f>
+      </c>
+      <c r="E4">
+        <f>=SUM(RoundTable!H2:H4)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>=SUM(RoundTable!B2:B5)</f>
+      </c>
+      <c r="C5">
+        <f>=SUM(RoundTable!D2:D5)</f>
+      </c>
+      <c r="D5">
+        <f>=AVERAGE(RoundTable!F2:F5)</f>
+      </c>
+      <c r="E5">
+        <f>=SUM(RoundTable!H2:H5)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>=SUM(RoundTable!B2:B6)</f>
+      </c>
+      <c r="C6">
+        <f>=SUM(RoundTable!D2:D6)</f>
+      </c>
+      <c r="D6">
+        <f>=AVERAGE(RoundTable!F2:F6)</f>
+      </c>
+      <c r="E6">
+        <f>=SUM(RoundTable!H2:H6)</f>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/simulation/manage/simulation/sidechainbc.xlsx
+++ b/simulation/manage/simulation/sidechainbc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -74,24 +74,6 @@
   </si>
   <si>
     <t>OverallBlockSpaceFull</t>
-  </si>
-  <si>
-    <t>2022-08-31T18:05:37-04:00</t>
-  </si>
-  <si>
-    <t>tcp://127.0.0.1:56205</t>
-  </si>
-  <si>
-    <t>2022-08-31T18:05:38-04:00</t>
-  </si>
-  <si>
-    <t>2022-08-31T18:05:40-04:00</t>
-  </si>
-  <si>
-    <t>2022-08-31T18:05:41-04:00</t>
-  </si>
-  <si>
-    <t>2022-08-31T18:05:42-04:00</t>
   </si>
 </sst>
 </file>
@@ -408,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
   <sheetPr>
     <tabColor rgb="FF8B0000"/>
     <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
@@ -417,26 +399,730 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="25"/>
+    <col customWidth="true" max="2" min="2" width="10"/>
+    <col customWidth="true" max="3" min="3" width="25"/>
+    <col customWidth="true" max="4" min="4" width="15"/>
+    <col customWidth="true" max="703" min="5" width="25"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>Size</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>Time</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="str">
-        <v>IssuedSCRoundNumber</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" t="str">
-        <v>ServAgrId</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="F1" t="str">
-        <v>MC Round#</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1"/>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="1"/>
+      <c r="IN1" s="1"/>
+      <c r="IO1" s="1"/>
+      <c r="IP1" s="1"/>
+      <c r="IQ1" s="1"/>
+      <c r="IR1" s="1"/>
+      <c r="IS1" s="1"/>
+      <c r="IT1" s="1"/>
+      <c r="IU1" s="1"/>
+      <c r="IV1" s="1"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
+      <c r="IZ1" s="1"/>
+      <c r="JA1" s="1"/>
+      <c r="JB1" s="1"/>
+      <c r="JC1" s="1"/>
+      <c r="JD1" s="1"/>
+      <c r="JE1" s="1"/>
+      <c r="JF1" s="1"/>
+      <c r="JG1" s="1"/>
+      <c r="JH1" s="1"/>
+      <c r="JI1" s="1"/>
+      <c r="JJ1" s="1"/>
+      <c r="JK1" s="1"/>
+      <c r="JL1" s="1"/>
+      <c r="JM1" s="1"/>
+      <c r="JN1" s="1"/>
+      <c r="JO1" s="1"/>
+      <c r="JP1" s="1"/>
+      <c r="JQ1" s="1"/>
+      <c r="JR1" s="1"/>
+      <c r="JS1" s="1"/>
+      <c r="JT1" s="1"/>
+      <c r="JU1" s="1"/>
+      <c r="JV1" s="1"/>
+      <c r="JW1" s="1"/>
+      <c r="JX1" s="1"/>
+      <c r="JY1" s="1"/>
+      <c r="JZ1" s="1"/>
+      <c r="KA1" s="1"/>
+      <c r="KB1" s="1"/>
+      <c r="KC1" s="1"/>
+      <c r="KD1" s="1"/>
+      <c r="KE1" s="1"/>
+      <c r="KF1" s="1"/>
+      <c r="KG1" s="1"/>
+      <c r="KH1" s="1"/>
+      <c r="KI1" s="1"/>
+      <c r="KJ1" s="1"/>
+      <c r="KK1" s="1"/>
+      <c r="KL1" s="1"/>
+      <c r="KM1" s="1"/>
+      <c r="KN1" s="1"/>
+      <c r="KO1" s="1"/>
+      <c r="KP1" s="1"/>
+      <c r="KQ1" s="1"/>
+      <c r="KR1" s="1"/>
+      <c r="KS1" s="1"/>
+      <c r="KT1" s="1"/>
+      <c r="KU1" s="1"/>
+      <c r="KV1" s="1"/>
+      <c r="KW1" s="1"/>
+      <c r="KX1" s="1"/>
+      <c r="KY1" s="1"/>
+      <c r="KZ1" s="1"/>
+      <c r="LA1" s="1"/>
+      <c r="LB1" s="1"/>
+      <c r="LC1" s="1"/>
+      <c r="LD1" s="1"/>
+      <c r="LE1" s="1"/>
+      <c r="LF1" s="1"/>
+      <c r="LG1" s="1"/>
+      <c r="LH1" s="1"/>
+      <c r="LI1" s="1"/>
+      <c r="LJ1" s="1"/>
+      <c r="LK1" s="1"/>
+      <c r="LL1" s="1"/>
+      <c r="LM1" s="1"/>
+      <c r="LN1" s="1"/>
+      <c r="LO1" s="1"/>
+      <c r="LP1" s="1"/>
+      <c r="LQ1" s="1"/>
+      <c r="LR1" s="1"/>
+      <c r="LS1" s="1"/>
+      <c r="LT1" s="1"/>
+      <c r="LU1" s="1"/>
+      <c r="LV1" s="1"/>
+      <c r="LW1" s="1"/>
+      <c r="LX1" s="1"/>
+      <c r="LY1" s="1"/>
+      <c r="LZ1" s="1"/>
+      <c r="MA1" s="1"/>
+      <c r="MB1" s="1"/>
+      <c r="MC1" s="1"/>
+      <c r="MD1" s="1"/>
+      <c r="ME1" s="1"/>
+      <c r="MF1" s="1"/>
+      <c r="MG1" s="1"/>
+      <c r="MH1" s="1"/>
+      <c r="MI1" s="1"/>
+      <c r="MJ1" s="1"/>
+      <c r="MK1" s="1"/>
+      <c r="ML1" s="1"/>
+      <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1"/>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
+      <c r="SS1" s="1"/>
+      <c r="ST1" s="1"/>
+      <c r="SU1" s="1"/>
+      <c r="SV1" s="1"/>
+      <c r="SW1" s="1"/>
+      <c r="SX1" s="1"/>
+      <c r="SY1" s="1"/>
+      <c r="SZ1" s="1"/>
+      <c r="TA1" s="1"/>
+      <c r="TB1" s="1"/>
+      <c r="TC1" s="1"/>
+      <c r="TD1" s="1"/>
+      <c r="TE1" s="1"/>
+      <c r="TF1" s="1"/>
+      <c r="TG1" s="1"/>
+      <c r="TH1" s="1"/>
+      <c r="TI1" s="1"/>
+      <c r="TJ1" s="1"/>
+      <c r="TK1" s="1"/>
+      <c r="TL1" s="1"/>
+      <c r="TM1" s="1"/>
+      <c r="TN1" s="1"/>
+      <c r="TO1" s="1"/>
+      <c r="TP1" s="1"/>
+      <c r="TQ1" s="1"/>
+      <c r="TR1" s="1"/>
+      <c r="TS1" s="1"/>
+      <c r="TT1" s="1"/>
+      <c r="TU1" s="1"/>
+      <c r="TV1" s="1"/>
+      <c r="TW1" s="1"/>
+      <c r="TX1" s="1"/>
+      <c r="TY1" s="1"/>
+      <c r="TZ1" s="1"/>
+      <c r="UA1" s="1"/>
+      <c r="UB1" s="1"/>
+      <c r="UC1" s="1"/>
+      <c r="UD1" s="1"/>
+      <c r="UE1" s="1"/>
+      <c r="UF1" s="1"/>
+      <c r="UG1" s="1"/>
+      <c r="UH1" s="1"/>
+      <c r="UI1" s="1"/>
+      <c r="UJ1" s="1"/>
+      <c r="UK1" s="1"/>
+      <c r="UL1" s="1"/>
+      <c r="UM1" s="1"/>
+      <c r="UN1" s="1"/>
+      <c r="UO1" s="1"/>
+      <c r="UP1" s="1"/>
+      <c r="UQ1" s="1"/>
+      <c r="UR1" s="1"/>
+      <c r="US1" s="1"/>
+      <c r="UT1" s="1"/>
+      <c r="UU1" s="1"/>
+      <c r="UV1" s="1"/>
+      <c r="UW1" s="1"/>
+      <c r="UX1" s="1"/>
+      <c r="UY1" s="1"/>
+      <c r="UZ1" s="1"/>
+      <c r="VA1" s="1"/>
+      <c r="VB1" s="1"/>
+      <c r="VC1" s="1"/>
+      <c r="VD1" s="1"/>
+      <c r="VE1" s="1"/>
+      <c r="VF1" s="1"/>
+      <c r="VG1" s="1"/>
+      <c r="VH1" s="1"/>
+      <c r="VI1" s="1"/>
+      <c r="VJ1" s="1"/>
+      <c r="VK1" s="1"/>
+      <c r="VL1" s="1"/>
+      <c r="VM1" s="1"/>
+      <c r="VN1" s="1"/>
+      <c r="VO1" s="1"/>
+      <c r="VP1" s="1"/>
+      <c r="VQ1" s="1"/>
+      <c r="VR1" s="1"/>
+      <c r="VS1" s="1"/>
+      <c r="VT1" s="1"/>
+      <c r="VU1" s="1"/>
+      <c r="VV1" s="1"/>
+      <c r="VW1" s="1"/>
+      <c r="VX1" s="1"/>
+      <c r="VY1" s="1"/>
+      <c r="VZ1" s="1"/>
+      <c r="WA1" s="1"/>
+      <c r="WB1" s="1"/>
+      <c r="WC1" s="1"/>
+      <c r="WD1" s="1"/>
+      <c r="WE1" s="1"/>
+      <c r="WF1" s="1"/>
+      <c r="WG1" s="1"/>
+      <c r="WH1" s="1"/>
+      <c r="WI1" s="1"/>
+      <c r="WJ1" s="1"/>
+      <c r="WK1" s="1"/>
+      <c r="WL1" s="1"/>
+      <c r="WM1" s="1"/>
+      <c r="WN1" s="1"/>
+      <c r="WO1" s="1"/>
+      <c r="WP1" s="1"/>
+      <c r="WQ1" s="1"/>
+      <c r="WR1" s="1"/>
+      <c r="WS1" s="1"/>
+      <c r="WT1" s="1"/>
+      <c r="WU1" s="1"/>
+      <c r="WV1" s="1"/>
+      <c r="WW1" s="1"/>
+      <c r="WX1" s="1"/>
+      <c r="WY1" s="1"/>
+      <c r="WZ1" s="1"/>
+      <c r="XA1" s="1"/>
+      <c r="XB1" s="1"/>
+      <c r="XC1" s="1"/>
+      <c r="XD1" s="1"/>
+      <c r="XE1" s="1"/>
+      <c r="XF1" s="1"/>
+      <c r="XG1" s="1"/>
+      <c r="XH1" s="1"/>
+      <c r="XI1" s="1"/>
+      <c r="XJ1" s="1"/>
+      <c r="XK1" s="1"/>
+      <c r="XL1" s="1"/>
+      <c r="XM1" s="1"/>
+      <c r="XN1" s="1"/>
+      <c r="XO1" s="1"/>
+      <c r="XP1" s="1"/>
+      <c r="XQ1" s="1"/>
+      <c r="XR1" s="1"/>
+      <c r="XS1" s="1"/>
+      <c r="XT1" s="1"/>
+      <c r="XU1" s="1"/>
+      <c r="XV1" s="1"/>
+      <c r="XW1" s="1"/>
+      <c r="XX1" s="1"/>
+      <c r="XY1" s="1"/>
+      <c r="XZ1" s="1"/>
+      <c r="YA1" s="1"/>
+      <c r="YB1" s="1"/>
+      <c r="YC1" s="1"/>
+      <c r="YD1" s="1"/>
+      <c r="YE1" s="1"/>
+      <c r="YF1" s="1"/>
+      <c r="YG1" s="1"/>
+      <c r="YH1" s="1"/>
+      <c r="YI1" s="1"/>
+      <c r="YJ1" s="1"/>
+      <c r="YK1" s="1"/>
+      <c r="YL1" s="1"/>
+      <c r="YM1" s="1"/>
+      <c r="YN1" s="1"/>
+      <c r="YO1" s="1"/>
+      <c r="YP1" s="1"/>
+      <c r="YQ1" s="1"/>
+      <c r="YR1" s="1"/>
+      <c r="YS1" s="1"/>
+      <c r="YT1" s="1"/>
+      <c r="YU1" s="1"/>
+      <c r="YV1" s="1"/>
+      <c r="YW1" s="1"/>
+      <c r="YX1" s="1"/>
+      <c r="YY1" s="1"/>
+      <c r="YZ1" s="1"/>
+      <c r="ZA1" s="1"/>
+      <c r="ZB1" s="1"/>
+      <c r="ZC1" s="1"/>
+      <c r="ZD1" s="1"/>
+      <c r="ZE1" s="1"/>
+      <c r="ZF1" s="1"/>
+      <c r="ZG1" s="1"/>
+      <c r="ZH1" s="1"/>
+      <c r="ZI1" s="1"/>
+      <c r="ZJ1" s="1"/>
+      <c r="ZK1" s="1"/>
+      <c r="ZL1" s="1"/>
+      <c r="ZM1" s="1"/>
+      <c r="ZN1" s="1"/>
+      <c r="ZO1" s="1"/>
+      <c r="ZP1" s="1"/>
+      <c r="ZQ1" s="1"/>
+      <c r="ZR1" s="1"/>
+      <c r="ZS1" s="1"/>
+      <c r="ZT1" s="1"/>
+      <c r="ZU1" s="1"/>
+      <c r="ZV1" s="1"/>
+      <c r="ZW1" s="1"/>
+      <c r="ZX1" s="1"/>
+      <c r="ZY1" s="1"/>
+      <c r="ZZ1" s="1"/>
+      <c r="AAA1" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1189,136 +1875,6 @@
       <c r="ZZ1" s="1"/>
       <c r="AAA1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>9223372036</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>181</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -2052,91 +2608,6 @@
       <c r="ZZ1" s="1"/>
       <c r="AAA1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>=SUM(RoundTable!B2:B2)</f>
-      </c>
-      <c r="C2">
-        <f>=SUM(RoundTable!D2:D2)</f>
-      </c>
-      <c r="D2">
-        <f>=AVERAGE(RoundTable!F2:F2)</f>
-      </c>
-      <c r="E2">
-        <f>=SUM(RoundTable!H2:H2)</f>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>=SUM(RoundTable!B2:B3)</f>
-      </c>
-      <c r="C3">
-        <f>=SUM(RoundTable!D2:D3)</f>
-      </c>
-      <c r="D3">
-        <f>=AVERAGE(RoundTable!F2:F3)</f>
-      </c>
-      <c r="E3">
-        <f>=SUM(RoundTable!H2:H3)</f>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>=SUM(RoundTable!B2:B4)</f>
-      </c>
-      <c r="C4">
-        <f>=SUM(RoundTable!D2:D4)</f>
-      </c>
-      <c r="D4">
-        <f>=AVERAGE(RoundTable!F2:F4)</f>
-      </c>
-      <c r="E4">
-        <f>=SUM(RoundTable!H2:H4)</f>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>=SUM(RoundTable!B2:B5)</f>
-      </c>
-      <c r="C5">
-        <f>=SUM(RoundTable!D2:D5)</f>
-      </c>
-      <c r="D5">
-        <f>=AVERAGE(RoundTable!F2:F5)</f>
-      </c>
-      <c r="E5">
-        <f>=SUM(RoundTable!H2:H5)</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>=SUM(RoundTable!B2:B6)</f>
-      </c>
-      <c r="C6">
-        <f>=SUM(RoundTable!D2:D6)</f>
-      </c>
-      <c r="D6">
-        <f>=AVERAGE(RoundTable!F2:F6)</f>
-      </c>
-      <c r="E6">
-        <f>=SUM(RoundTable!H2:H6)</f>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/simulation/manage/simulation/sidechainbc.xlsx
+++ b/simulation/manage/simulation/sidechainbc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -74,6 +74,45 @@
   </si>
   <si>
     <t>OverallBlockSpaceFull</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:32-04:00</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:61986</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:33-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:34-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:35-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:37-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:38-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:39-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:40-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:41-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:42-04:00</t>
+  </si>
+  <si>
+    <t>2022-09-23T12:29:45-04:00</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:61990</t>
   </si>
 </sst>
 </file>
@@ -390,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8B0000"/>
     <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
@@ -399,37 +438,4064 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D1" t="str">
+        <v>IssuedSCRoundNumber</v>
+      </c>
+      <c r="E1" t="str">
+        <v>ServAgrId</v>
+      </c>
+      <c r="F1" t="str">
+        <v>MC Round#</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B2" t="str">
+        <v>515</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B3" t="str">
+        <v>515</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B4" t="str">
+        <v>515</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B5" t="str">
+        <v>515</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B6" t="str">
+        <v>515</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B7" t="str">
+        <v>515</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>5</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B8" t="str">
+        <v>515</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>7</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B9" t="str">
+        <v>515</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>8</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B10" t="str">
+        <v>515</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>9</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B11" t="str">
+        <v>515</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>10</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B12" t="str">
+        <v>515</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>11</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B13" t="str">
+        <v>515</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>12</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B14" t="str">
+        <v>515</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>13</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B15" t="str">
+        <v>515</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>14</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B16" t="str">
+        <v>515</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>15</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B17" t="str">
+        <v>515</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>16</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B18" t="str">
+        <v>515</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>17</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B19" t="str">
+        <v>515</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>18</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B20" t="str">
+        <v>515</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>19</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B21" t="str">
+        <v>515</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <v>20</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B22" t="str">
+        <v>515</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>21</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B23" t="str">
+        <v>515</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <v>22</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B24" t="str">
+        <v>515</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <v>23</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B25" t="str">
+        <v>515</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <v>24</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B26" t="str">
+        <v>515</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <v>25</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B27" t="str">
+        <v>515</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <v>26</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B28" t="str">
+        <v>515</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <v>27</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B29" t="str">
+        <v>515</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>28</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B30" t="str">
+        <v>515</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <v>29</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B31" t="str">
+        <v>515</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <v>30</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B32" t="str">
+        <v>515</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <v>31</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B33" t="str">
+        <v>515</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <v>32</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B34" t="str">
+        <v>515</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <v>33</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B35" t="str">
+        <v>515</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <v>34</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B36" t="str">
+        <v>515</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <v>35</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B37" t="str">
+        <v>515</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <v>36</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B38" t="str">
+        <v>515</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <v>37</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B39" t="str">
+        <v>515</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1</v>
+      </c>
+      <c r="E39" t="str">
+        <v>38</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B40" t="str">
+        <v>515</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1</v>
+      </c>
+      <c r="E40" t="str">
+        <v>39</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B41" t="str">
+        <v>515</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <v>40</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B42" t="str">
+        <v>515</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <v>41</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B43" t="str">
+        <v>515</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <v>42</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B44" t="str">
+        <v>515</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <v>43</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B45" t="str">
+        <v>515</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D45" t="str">
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <v>44</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B46" t="str">
+        <v>515</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <v>45</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B47" t="str">
+        <v>515</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D47" t="str">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <v>46</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B48" t="str">
+        <v>515</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D48" t="str">
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <v>47</v>
+      </c>
+      <c r="F48" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B49" t="str">
+        <v>515</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D49" t="str">
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <v>48</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B50" t="str">
+        <v>515</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <v>49</v>
+      </c>
+      <c r="F50" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B51" t="str">
+        <v>515</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <v>50</v>
+      </c>
+      <c r="F51" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B52" t="str">
+        <v>515</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <v>51</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B53" t="str">
+        <v>515</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D53" t="str">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <v>52</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B54" t="str">
+        <v>515</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <v>53</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B55" t="str">
+        <v>515</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D55" t="str">
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
+        <v>54</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B56" t="str">
+        <v>515</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <v>55</v>
+      </c>
+      <c r="F56" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B57" t="str">
+        <v>515</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <v>56</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B58" t="str">
+        <v>515</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <v>57</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B59" t="str">
+        <v>515</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <v>58</v>
+      </c>
+      <c r="F59" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B60" t="str">
+        <v>515</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D60" t="str">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <v>59</v>
+      </c>
+      <c r="F60" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B61" t="str">
+        <v>515</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D61" t="str">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <v>60</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B62" t="str">
+        <v>515</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <v>61</v>
+      </c>
+      <c r="F62" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B63" t="str">
+        <v>515</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D63" t="str">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <v>62</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B64" t="str">
+        <v>515</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D64" t="str">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <v>63</v>
+      </c>
+      <c r="F64" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B65" t="str">
+        <v>515</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D65" t="str">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>64</v>
+      </c>
+      <c r="F65" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B66" t="str">
+        <v>515</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>65</v>
+      </c>
+      <c r="F66" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B67" t="str">
+        <v>515</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D67" t="str">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <v>66</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B68" t="str">
+        <v>515</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D68" t="str">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <v>67</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B69" t="str">
+        <v>515</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D69" t="str">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <v>68</v>
+      </c>
+      <c r="F69" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B70" t="str">
+        <v>515</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D70" t="str">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <v>69</v>
+      </c>
+      <c r="F70" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B71" t="str">
+        <v>515</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D71" t="str">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <v>70</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B72" t="str">
+        <v>515</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D72" t="str">
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <v>71</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B73" t="str">
+        <v>515</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D73" t="str">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <v>72</v>
+      </c>
+      <c r="F73" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B74" t="str">
+        <v>515</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D74" t="str">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <v>73</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B75" t="str">
+        <v>515</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D75" t="str">
+        <v>1</v>
+      </c>
+      <c r="E75" t="str">
+        <v>74</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B76" t="str">
+        <v>515</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D76" t="str">
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <v>75</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B77" t="str">
+        <v>515</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D77" t="str">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <v>76</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B78" t="str">
+        <v>515</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D78" t="str">
+        <v>1</v>
+      </c>
+      <c r="E78" t="str">
+        <v>77</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B79" t="str">
+        <v>515</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D79" t="str">
+        <v>1</v>
+      </c>
+      <c r="E79" t="str">
+        <v>78</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B80" t="str">
+        <v>515</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D80" t="str">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <v>79</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B81" t="str">
+        <v>515</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D81" t="str">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <v>80</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B82" t="str">
+        <v>515</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D82" t="str">
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <v>81</v>
+      </c>
+      <c r="F82" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B83" t="str">
+        <v>515</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D83" t="str">
+        <v>1</v>
+      </c>
+      <c r="E83" t="str">
+        <v>82</v>
+      </c>
+      <c r="F83" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B84" t="str">
+        <v>515</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D84" t="str">
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <v>83</v>
+      </c>
+      <c r="F84" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B85" t="str">
+        <v>515</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D85" t="str">
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <v>84</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B86" t="str">
+        <v>515</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D86" t="str">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <v>85</v>
+      </c>
+      <c r="F86" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B87" t="str">
+        <v>515</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D87" t="str">
+        <v>1</v>
+      </c>
+      <c r="E87" t="str">
+        <v>86</v>
+      </c>
+      <c r="F87" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B88" t="str">
+        <v>515</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D88" t="str">
+        <v>1</v>
+      </c>
+      <c r="E88" t="str">
+        <v>87</v>
+      </c>
+      <c r="F88" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B89" t="str">
+        <v>515</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D89" t="str">
+        <v>1</v>
+      </c>
+      <c r="E89" t="str">
+        <v>88</v>
+      </c>
+      <c r="F89" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B90" t="str">
+        <v>515</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D90" t="str">
+        <v>1</v>
+      </c>
+      <c r="E90" t="str">
+        <v>89</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B91" t="str">
+        <v>515</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D91" t="str">
+        <v>1</v>
+      </c>
+      <c r="E91" t="str">
+        <v>90</v>
+      </c>
+      <c r="F91" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B92" t="str">
+        <v>515</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D92" t="str">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <v>91</v>
+      </c>
+      <c r="F92" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B93" t="str">
+        <v>515</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D93" t="str">
+        <v>1</v>
+      </c>
+      <c r="E93" t="str">
+        <v>92</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B94" t="str">
+        <v>515</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D94" t="str">
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <v>93</v>
+      </c>
+      <c r="F94" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B95" t="str">
+        <v>515</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D95" t="str">
+        <v>1</v>
+      </c>
+      <c r="E95" t="str">
+        <v>94</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B96" t="str">
+        <v>515</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D96" t="str">
+        <v>1</v>
+      </c>
+      <c r="E96" t="str">
+        <v>95</v>
+      </c>
+      <c r="F96" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B97" t="str">
+        <v>515</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D97" t="str">
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <v>96</v>
+      </c>
+      <c r="F97" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B98" t="str">
+        <v>515</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D98" t="str">
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <v>97</v>
+      </c>
+      <c r="F98" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B99" t="str">
+        <v>515</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D99" t="str">
+        <v>1</v>
+      </c>
+      <c r="E99" t="str">
+        <v>98</v>
+      </c>
+      <c r="F99" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B100" t="str">
+        <v>515</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2022-09-23T12:29:45-04:00</v>
+      </c>
+      <c r="D100" t="str">
+        <v>1</v>
+      </c>
+      <c r="E100" t="str">
+        <v>99</v>
+      </c>
+      <c r="F100" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B101" t="str">
+        <v>515</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D101" t="str">
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+      <c r="F101" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B102" t="str">
+        <v>515</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D102" t="str">
+        <v>1</v>
+      </c>
+      <c r="E102" t="str">
+        <v>1</v>
+      </c>
+      <c r="F102" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B103" t="str">
+        <v>515</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D103" t="str">
+        <v>1</v>
+      </c>
+      <c r="E103" t="str">
+        <v>2</v>
+      </c>
+      <c r="F103" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B104" t="str">
+        <v>515</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D104" t="str">
+        <v>1</v>
+      </c>
+      <c r="E104" t="str">
+        <v>3</v>
+      </c>
+      <c r="F104" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B105" t="str">
+        <v>515</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D105" t="str">
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <v>4</v>
+      </c>
+      <c r="F105" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B106" t="str">
+        <v>515</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D106" t="str">
+        <v>1</v>
+      </c>
+      <c r="E106" t="str">
+        <v>5</v>
+      </c>
+      <c r="F106" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B107" t="str">
+        <v>515</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D107" t="str">
+        <v>1</v>
+      </c>
+      <c r="E107" t="str">
+        <v>6</v>
+      </c>
+      <c r="F107" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B108" t="str">
+        <v>515</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D108" t="str">
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
+        <v>7</v>
+      </c>
+      <c r="F108" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B109" t="str">
+        <v>515</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D109" t="str">
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <v>8</v>
+      </c>
+      <c r="F109" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B110" t="str">
+        <v>515</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D110" t="str">
+        <v>1</v>
+      </c>
+      <c r="E110" t="str">
+        <v>9</v>
+      </c>
+      <c r="F110" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B111" t="str">
+        <v>515</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D111" t="str">
+        <v>1</v>
+      </c>
+      <c r="E111" t="str">
+        <v>10</v>
+      </c>
+      <c r="F111" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B112" t="str">
+        <v>515</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D112" t="str">
+        <v>1</v>
+      </c>
+      <c r="E112" t="str">
+        <v>11</v>
+      </c>
+      <c r="F112" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B113" t="str">
+        <v>515</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D113" t="str">
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <v>12</v>
+      </c>
+      <c r="F113" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B114" t="str">
+        <v>515</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D114" t="str">
+        <v>1</v>
+      </c>
+      <c r="E114" t="str">
+        <v>13</v>
+      </c>
+      <c r="F114" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B115" t="str">
+        <v>515</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D115" t="str">
+        <v>1</v>
+      </c>
+      <c r="E115" t="str">
+        <v>14</v>
+      </c>
+      <c r="F115" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B116" t="str">
+        <v>515</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D116" t="str">
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <v>15</v>
+      </c>
+      <c r="F116" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B117" t="str">
+        <v>515</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D117" t="str">
+        <v>1</v>
+      </c>
+      <c r="E117" t="str">
+        <v>16</v>
+      </c>
+      <c r="F117" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B118" t="str">
+        <v>515</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D118" t="str">
+        <v>1</v>
+      </c>
+      <c r="E118" t="str">
+        <v>17</v>
+      </c>
+      <c r="F118" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B119" t="str">
+        <v>515</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D119" t="str">
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <v>18</v>
+      </c>
+      <c r="F119" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B120" t="str">
+        <v>515</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D120" t="str">
+        <v>1</v>
+      </c>
+      <c r="E120" t="str">
+        <v>19</v>
+      </c>
+      <c r="F120" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B121" t="str">
+        <v>515</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D121" t="str">
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <v>20</v>
+      </c>
+      <c r="F121" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B122" t="str">
+        <v>515</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D122" t="str">
+        <v>1</v>
+      </c>
+      <c r="E122" t="str">
+        <v>21</v>
+      </c>
+      <c r="F122" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B123" t="str">
+        <v>515</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D123" t="str">
+        <v>1</v>
+      </c>
+      <c r="E123" t="str">
+        <v>22</v>
+      </c>
+      <c r="F123" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B124" t="str">
+        <v>515</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D124" t="str">
+        <v>1</v>
+      </c>
+      <c r="E124" t="str">
+        <v>23</v>
+      </c>
+      <c r="F124" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B125" t="str">
+        <v>515</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D125" t="str">
+        <v>1</v>
+      </c>
+      <c r="E125" t="str">
+        <v>24</v>
+      </c>
+      <c r="F125" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B126" t="str">
+        <v>515</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D126" t="str">
+        <v>1</v>
+      </c>
+      <c r="E126" t="str">
+        <v>25</v>
+      </c>
+      <c r="F126" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B127" t="str">
+        <v>515</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D127" t="str">
+        <v>1</v>
+      </c>
+      <c r="E127" t="str">
+        <v>26</v>
+      </c>
+      <c r="F127" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B128" t="str">
+        <v>515</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D128" t="str">
+        <v>1</v>
+      </c>
+      <c r="E128" t="str">
+        <v>27</v>
+      </c>
+      <c r="F128" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B129" t="str">
+        <v>515</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D129" t="str">
+        <v>1</v>
+      </c>
+      <c r="E129" t="str">
+        <v>28</v>
+      </c>
+      <c r="F129" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B130" t="str">
+        <v>515</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D130" t="str">
+        <v>1</v>
+      </c>
+      <c r="E130" t="str">
+        <v>29</v>
+      </c>
+      <c r="F130" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B131" t="str">
+        <v>515</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D131" t="str">
+        <v>1</v>
+      </c>
+      <c r="E131" t="str">
+        <v>30</v>
+      </c>
+      <c r="F131" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B132" t="str">
+        <v>515</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D132" t="str">
+        <v>1</v>
+      </c>
+      <c r="E132" t="str">
+        <v>31</v>
+      </c>
+      <c r="F132" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B133" t="str">
+        <v>515</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D133" t="str">
+        <v>1</v>
+      </c>
+      <c r="E133" t="str">
+        <v>32</v>
+      </c>
+      <c r="F133" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B134" t="str">
+        <v>515</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D134" t="str">
+        <v>1</v>
+      </c>
+      <c r="E134" t="str">
+        <v>33</v>
+      </c>
+      <c r="F134" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B135" t="str">
+        <v>515</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D135" t="str">
+        <v>1</v>
+      </c>
+      <c r="E135" t="str">
+        <v>34</v>
+      </c>
+      <c r="F135" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B136" t="str">
+        <v>515</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D136" t="str">
+        <v>1</v>
+      </c>
+      <c r="E136" t="str">
+        <v>35</v>
+      </c>
+      <c r="F136" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B137" t="str">
+        <v>515</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D137" t="str">
+        <v>1</v>
+      </c>
+      <c r="E137" t="str">
+        <v>36</v>
+      </c>
+      <c r="F137" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B138" t="str">
+        <v>515</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D138" t="str">
+        <v>1</v>
+      </c>
+      <c r="E138" t="str">
+        <v>37</v>
+      </c>
+      <c r="F138" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B139" t="str">
+        <v>515</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D139" t="str">
+        <v>1</v>
+      </c>
+      <c r="E139" t="str">
+        <v>38</v>
+      </c>
+      <c r="F139" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B140" t="str">
+        <v>515</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D140" t="str">
+        <v>1</v>
+      </c>
+      <c r="E140" t="str">
+        <v>39</v>
+      </c>
+      <c r="F140" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B141" t="str">
+        <v>515</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D141" t="str">
+        <v>1</v>
+      </c>
+      <c r="E141" t="str">
+        <v>40</v>
+      </c>
+      <c r="F141" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B142" t="str">
+        <v>515</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D142" t="str">
+        <v>1</v>
+      </c>
+      <c r="E142" t="str">
+        <v>41</v>
+      </c>
+      <c r="F142" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B143" t="str">
+        <v>515</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D143" t="str">
+        <v>1</v>
+      </c>
+      <c r="E143" t="str">
+        <v>42</v>
+      </c>
+      <c r="F143" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B144" t="str">
+        <v>515</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D144" t="str">
+        <v>1</v>
+      </c>
+      <c r="E144" t="str">
+        <v>43</v>
+      </c>
+      <c r="F144" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B145" t="str">
+        <v>515</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D145" t="str">
+        <v>1</v>
+      </c>
+      <c r="E145" t="str">
+        <v>44</v>
+      </c>
+      <c r="F145" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B146" t="str">
+        <v>515</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D146" t="str">
+        <v>1</v>
+      </c>
+      <c r="E146" t="str">
+        <v>45</v>
+      </c>
+      <c r="F146" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B147" t="str">
+        <v>515</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D147" t="str">
+        <v>1</v>
+      </c>
+      <c r="E147" t="str">
+        <v>46</v>
+      </c>
+      <c r="F147" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B148" t="str">
+        <v>515</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D148" t="str">
+        <v>1</v>
+      </c>
+      <c r="E148" t="str">
+        <v>47</v>
+      </c>
+      <c r="F148" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B149" t="str">
+        <v>515</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D149" t="str">
+        <v>1</v>
+      </c>
+      <c r="E149" t="str">
+        <v>48</v>
+      </c>
+      <c r="F149" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B150" t="str">
+        <v>515</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D150" t="str">
+        <v>1</v>
+      </c>
+      <c r="E150" t="str">
+        <v>49</v>
+      </c>
+      <c r="F150" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B151" t="str">
+        <v>515</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D151" t="str">
+        <v>1</v>
+      </c>
+      <c r="E151" t="str">
+        <v>50</v>
+      </c>
+      <c r="F151" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B152" t="str">
+        <v>515</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D152" t="str">
+        <v>1</v>
+      </c>
+      <c r="E152" t="str">
+        <v>51</v>
+      </c>
+      <c r="F152" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B153" t="str">
+        <v>515</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D153" t="str">
+        <v>1</v>
+      </c>
+      <c r="E153" t="str">
+        <v>52</v>
+      </c>
+      <c r="F153" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B154" t="str">
+        <v>515</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D154" t="str">
+        <v>1</v>
+      </c>
+      <c r="E154" t="str">
+        <v>53</v>
+      </c>
+      <c r="F154" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B155" t="str">
+        <v>515</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D155" t="str">
+        <v>1</v>
+      </c>
+      <c r="E155" t="str">
+        <v>54</v>
+      </c>
+      <c r="F155" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B156" t="str">
+        <v>515</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D156" t="str">
+        <v>1</v>
+      </c>
+      <c r="E156" t="str">
+        <v>55</v>
+      </c>
+      <c r="F156" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B157" t="str">
+        <v>515</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D157" t="str">
+        <v>1</v>
+      </c>
+      <c r="E157" t="str">
+        <v>56</v>
+      </c>
+      <c r="F157" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B158" t="str">
+        <v>515</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D158" t="str">
+        <v>1</v>
+      </c>
+      <c r="E158" t="str">
+        <v>57</v>
+      </c>
+      <c r="F158" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B159" t="str">
+        <v>515</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D159" t="str">
+        <v>1</v>
+      </c>
+      <c r="E159" t="str">
+        <v>58</v>
+      </c>
+      <c r="F159" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B160" t="str">
+        <v>515</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D160" t="str">
+        <v>1</v>
+      </c>
+      <c r="E160" t="str">
+        <v>59</v>
+      </c>
+      <c r="F160" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B161" t="str">
+        <v>515</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D161" t="str">
+        <v>1</v>
+      </c>
+      <c r="E161" t="str">
+        <v>60</v>
+      </c>
+      <c r="F161" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B162" t="str">
+        <v>515</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D162" t="str">
+        <v>1</v>
+      </c>
+      <c r="E162" t="str">
+        <v>61</v>
+      </c>
+      <c r="F162" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B163" t="str">
+        <v>515</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D163" t="str">
+        <v>1</v>
+      </c>
+      <c r="E163" t="str">
+        <v>62</v>
+      </c>
+      <c r="F163" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B164" t="str">
+        <v>515</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D164" t="str">
+        <v>1</v>
+      </c>
+      <c r="E164" t="str">
+        <v>63</v>
+      </c>
+      <c r="F164" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B165" t="str">
+        <v>515</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D165" t="str">
+        <v>1</v>
+      </c>
+      <c r="E165" t="str">
+        <v>64</v>
+      </c>
+      <c r="F165" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B166" t="str">
+        <v>515</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D166" t="str">
+        <v>1</v>
+      </c>
+      <c r="E166" t="str">
+        <v>65</v>
+      </c>
+      <c r="F166" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B167" t="str">
+        <v>515</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D167" t="str">
+        <v>1</v>
+      </c>
+      <c r="E167" t="str">
+        <v>66</v>
+      </c>
+      <c r="F167" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B168" t="str">
+        <v>515</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D168" t="str">
+        <v>1</v>
+      </c>
+      <c r="E168" t="str">
+        <v>67</v>
+      </c>
+      <c r="F168" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B169" t="str">
+        <v>515</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D169" t="str">
+        <v>1</v>
+      </c>
+      <c r="E169" t="str">
+        <v>68</v>
+      </c>
+      <c r="F169" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B170" t="str">
+        <v>515</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D170" t="str">
+        <v>1</v>
+      </c>
+      <c r="E170" t="str">
+        <v>69</v>
+      </c>
+      <c r="F170" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B171" t="str">
+        <v>515</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D171" t="str">
+        <v>1</v>
+      </c>
+      <c r="E171" t="str">
+        <v>70</v>
+      </c>
+      <c r="F171" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B172" t="str">
+        <v>515</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D172" t="str">
+        <v>1</v>
+      </c>
+      <c r="E172" t="str">
+        <v>71</v>
+      </c>
+      <c r="F172" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B173" t="str">
+        <v>515</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D173" t="str">
+        <v>1</v>
+      </c>
+      <c r="E173" t="str">
+        <v>72</v>
+      </c>
+      <c r="F173" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B174" t="str">
+        <v>515</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D174" t="str">
+        <v>1</v>
+      </c>
+      <c r="E174" t="str">
+        <v>73</v>
+      </c>
+      <c r="F174" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B175" t="str">
+        <v>515</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D175" t="str">
+        <v>1</v>
+      </c>
+      <c r="E175" t="str">
+        <v>74</v>
+      </c>
+      <c r="F175" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B176" t="str">
+        <v>515</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D176" t="str">
+        <v>1</v>
+      </c>
+      <c r="E176" t="str">
+        <v>75</v>
+      </c>
+      <c r="F176" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B177" t="str">
+        <v>515</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D177" t="str">
+        <v>1</v>
+      </c>
+      <c r="E177" t="str">
+        <v>76</v>
+      </c>
+      <c r="F177" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B178" t="str">
+        <v>515</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D178" t="str">
+        <v>1</v>
+      </c>
+      <c r="E178" t="str">
+        <v>77</v>
+      </c>
+      <c r="F178" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B179" t="str">
+        <v>515</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D179" t="str">
+        <v>1</v>
+      </c>
+      <c r="E179" t="str">
+        <v>78</v>
+      </c>
+      <c r="F179" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B180" t="str">
+        <v>515</v>
+      </c>
+      <c r="C180" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D180" t="str">
+        <v>1</v>
+      </c>
+      <c r="E180" t="str">
+        <v>79</v>
+      </c>
+      <c r="F180" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B181" t="str">
+        <v>515</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D181" t="str">
+        <v>1</v>
+      </c>
+      <c r="E181" t="str">
+        <v>80</v>
+      </c>
+      <c r="F181" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B182" t="str">
+        <v>515</v>
+      </c>
+      <c r="C182" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D182" t="str">
+        <v>1</v>
+      </c>
+      <c r="E182" t="str">
+        <v>81</v>
+      </c>
+      <c r="F182" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B183" t="str">
+        <v>515</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D183" t="str">
+        <v>1</v>
+      </c>
+      <c r="E183" t="str">
+        <v>82</v>
+      </c>
+      <c r="F183" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B184" t="str">
+        <v>515</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D184" t="str">
+        <v>1</v>
+      </c>
+      <c r="E184" t="str">
+        <v>83</v>
+      </c>
+      <c r="F184" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B185" t="str">
+        <v>515</v>
+      </c>
+      <c r="C185" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D185" t="str">
+        <v>1</v>
+      </c>
+      <c r="E185" t="str">
+        <v>84</v>
+      </c>
+      <c r="F185" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B186" t="str">
+        <v>515</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D186" t="str">
+        <v>1</v>
+      </c>
+      <c r="E186" t="str">
+        <v>85</v>
+      </c>
+      <c r="F186" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B187" t="str">
+        <v>515</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D187" t="str">
+        <v>1</v>
+      </c>
+      <c r="E187" t="str">
+        <v>86</v>
+      </c>
+      <c r="F187" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B188" t="str">
+        <v>515</v>
+      </c>
+      <c r="C188" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D188" t="str">
+        <v>1</v>
+      </c>
+      <c r="E188" t="str">
+        <v>87</v>
+      </c>
+      <c r="F188" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B189" t="str">
+        <v>515</v>
+      </c>
+      <c r="C189" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D189" t="str">
+        <v>1</v>
+      </c>
+      <c r="E189" t="str">
+        <v>88</v>
+      </c>
+      <c r="F189" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B190" t="str">
+        <v>515</v>
+      </c>
+      <c r="C190" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D190" t="str">
+        <v>1</v>
+      </c>
+      <c r="E190" t="str">
+        <v>89</v>
+      </c>
+      <c r="F190" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B191" t="str">
+        <v>515</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D191" t="str">
+        <v>1</v>
+      </c>
+      <c r="E191" t="str">
+        <v>90</v>
+      </c>
+      <c r="F191" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B192" t="str">
+        <v>515</v>
+      </c>
+      <c r="C192" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D192" t="str">
+        <v>1</v>
+      </c>
+      <c r="E192" t="str">
+        <v>91</v>
+      </c>
+      <c r="F192" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B193" t="str">
+        <v>515</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D193" t="str">
+        <v>1</v>
+      </c>
+      <c r="E193" t="str">
+        <v>92</v>
+      </c>
+      <c r="F193" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B194" t="str">
+        <v>515</v>
+      </c>
+      <c r="C194" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D194" t="str">
+        <v>1</v>
+      </c>
+      <c r="E194" t="str">
+        <v>93</v>
+      </c>
+      <c r="F194" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B195" t="str">
+        <v>515</v>
+      </c>
+      <c r="C195" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D195" t="str">
+        <v>1</v>
+      </c>
+      <c r="E195" t="str">
+        <v>94</v>
+      </c>
+      <c r="F195" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B196" t="str">
+        <v>515</v>
+      </c>
+      <c r="C196" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D196" t="str">
+        <v>1</v>
+      </c>
+      <c r="E196" t="str">
+        <v>95</v>
+      </c>
+      <c r="F196" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B197" t="str">
+        <v>515</v>
+      </c>
+      <c r="C197" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D197" t="str">
+        <v>1</v>
+      </c>
+      <c r="E197" t="str">
+        <v>96</v>
+      </c>
+      <c r="F197" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B198" t="str">
+        <v>515</v>
+      </c>
+      <c r="C198" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D198" t="str">
+        <v>1</v>
+      </c>
+      <c r="E198" t="str">
+        <v>97</v>
+      </c>
+      <c r="F198" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B199" t="str">
+        <v>515</v>
+      </c>
+      <c r="C199" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D199" t="str">
+        <v>1</v>
+      </c>
+      <c r="E199" t="str">
+        <v>98</v>
+      </c>
+      <c r="F199" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B200" t="str">
+        <v>515</v>
+      </c>
+      <c r="C200" t="str">
+        <v>2022-09-23T12:29:27-04:00</v>
+      </c>
+      <c r="D200" t="str">
+        <v>1</v>
+      </c>
+      <c r="E200" t="str">
+        <v>99</v>
+      </c>
+      <c r="F200" t="str">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <cols>
-    <col customWidth="true" max="1" min="1" width="25"/>
-    <col customWidth="true" max="2" min="2" width="10"/>
-    <col customWidth="true" max="3" min="3" width="25"/>
+    <col customWidth="true" max="2" min="1" width="10"/>
+    <col customWidth="true" max="3" min="3" width="40"/>
     <col customWidth="true" max="4" min="4" width="15"/>
-    <col customWidth="true" max="703" min="5" width="25"/>
+    <col customWidth="true" max="5" min="5" width="60"/>
+    <col customWidth="true" max="6" min="6" width="10"/>
+    <col customWidth="true" max="7" min="7" width="20"/>
+    <col customWidth="true" max="8" min="8" width="10"/>
+    <col customWidth="true" max="9" min="9" width="20"/>
+    <col customWidth="true" max="703" min="10" width="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1124,756 +5190,315 @@
       <c r="ZZ1" s="1"/>
       <c r="AAA1" s="1"/>
     </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="r">
-  <sheetPr>
-    <tabColor rgb="FFFF66FF"/>
-    <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col customWidth="true" max="2" min="1" width="10"/>
-    <col customWidth="true" max="3" min="3" width="40"/>
-    <col customWidth="true" max="4" min="4" width="15"/>
-    <col customWidth="true" max="5" min="5" width="60"/>
-    <col customWidth="true" max="6" min="6" width="10"/>
-    <col customWidth="true" max="7" min="7" width="20"/>
-    <col customWidth="true" max="8" min="8" width="10"/>
-    <col customWidth="true" max="9" min="9" width="20"/>
-    <col customWidth="true" max="703" min="10" width="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" customHeight="true">
-      <c r="A1" s="1" t="s">
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>9223372036</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B8">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B9">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B10">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
-      <c r="IW1" s="1"/>
-      <c r="IX1" s="1"/>
-      <c r="IY1" s="1"/>
-      <c r="IZ1" s="1"/>
-      <c r="JA1" s="1"/>
-      <c r="JB1" s="1"/>
-      <c r="JC1" s="1"/>
-      <c r="JD1" s="1"/>
-      <c r="JE1" s="1"/>
-      <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
-      <c r="JH1" s="1"/>
-      <c r="JI1" s="1"/>
-      <c r="JJ1" s="1"/>
-      <c r="JK1" s="1"/>
-      <c r="JL1" s="1"/>
-      <c r="JM1" s="1"/>
-      <c r="JN1" s="1"/>
-      <c r="JO1" s="1"/>
-      <c r="JP1" s="1"/>
-      <c r="JQ1" s="1"/>
-      <c r="JR1" s="1"/>
-      <c r="JS1" s="1"/>
-      <c r="JT1" s="1"/>
-      <c r="JU1" s="1"/>
-      <c r="JV1" s="1"/>
-      <c r="JW1" s="1"/>
-      <c r="JX1" s="1"/>
-      <c r="JY1" s="1"/>
-      <c r="JZ1" s="1"/>
-      <c r="KA1" s="1"/>
-      <c r="KB1" s="1"/>
-      <c r="KC1" s="1"/>
-      <c r="KD1" s="1"/>
-      <c r="KE1" s="1"/>
-      <c r="KF1" s="1"/>
-      <c r="KG1" s="1"/>
-      <c r="KH1" s="1"/>
-      <c r="KI1" s="1"/>
-      <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
-      <c r="KL1" s="1"/>
-      <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
-      <c r="KO1" s="1"/>
-      <c r="KP1" s="1"/>
-      <c r="KQ1" s="1"/>
-      <c r="KR1" s="1"/>
-      <c r="KS1" s="1"/>
-      <c r="KT1" s="1"/>
-      <c r="KU1" s="1"/>
-      <c r="KV1" s="1"/>
-      <c r="KW1" s="1"/>
-      <c r="KX1" s="1"/>
-      <c r="KY1" s="1"/>
-      <c r="KZ1" s="1"/>
-      <c r="LA1" s="1"/>
-      <c r="LB1" s="1"/>
-      <c r="LC1" s="1"/>
-      <c r="LD1" s="1"/>
-      <c r="LE1" s="1"/>
-      <c r="LF1" s="1"/>
-      <c r="LG1" s="1"/>
-      <c r="LH1" s="1"/>
-      <c r="LI1" s="1"/>
-      <c r="LJ1" s="1"/>
-      <c r="LK1" s="1"/>
-      <c r="LL1" s="1"/>
-      <c r="LM1" s="1"/>
-      <c r="LN1" s="1"/>
-      <c r="LO1" s="1"/>
-      <c r="LP1" s="1"/>
-      <c r="LQ1" s="1"/>
-      <c r="LR1" s="1"/>
-      <c r="LS1" s="1"/>
-      <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
-      <c r="LV1" s="1"/>
-      <c r="LW1" s="1"/>
-      <c r="LX1" s="1"/>
-      <c r="LY1" s="1"/>
-      <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
-      <c r="MB1" s="1"/>
-      <c r="MC1" s="1"/>
-      <c r="MD1" s="1"/>
-      <c r="ME1" s="1"/>
-      <c r="MF1" s="1"/>
-      <c r="MG1" s="1"/>
-      <c r="MH1" s="1"/>
-      <c r="MI1" s="1"/>
-      <c r="MJ1" s="1"/>
-      <c r="MK1" s="1"/>
-      <c r="ML1" s="1"/>
-      <c r="MM1" s="1"/>
-      <c r="MN1" s="1"/>
-      <c r="MO1" s="1"/>
-      <c r="MP1" s="1"/>
-      <c r="MQ1" s="1"/>
-      <c r="MR1" s="1"/>
-      <c r="MS1" s="1"/>
-      <c r="MT1" s="1"/>
-      <c r="MU1" s="1"/>
-      <c r="MV1" s="1"/>
-      <c r="MW1" s="1"/>
-      <c r="MX1" s="1"/>
-      <c r="MY1" s="1"/>
-      <c r="MZ1" s="1"/>
-      <c r="NA1" s="1"/>
-      <c r="NB1" s="1"/>
-      <c r="NC1" s="1"/>
-      <c r="ND1" s="1"/>
-      <c r="NE1" s="1"/>
-      <c r="NF1" s="1"/>
-      <c r="NG1" s="1"/>
-      <c r="NH1" s="1"/>
-      <c r="NI1" s="1"/>
-      <c r="NJ1" s="1"/>
-      <c r="NK1" s="1"/>
-      <c r="NL1" s="1"/>
-      <c r="NM1" s="1"/>
-      <c r="NN1" s="1"/>
-      <c r="NO1" s="1"/>
-      <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
-      <c r="NR1" s="1"/>
-      <c r="NS1" s="1"/>
-      <c r="NT1" s="1"/>
-      <c r="NU1" s="1"/>
-      <c r="NV1" s="1"/>
-      <c r="NW1" s="1"/>
-      <c r="NX1" s="1"/>
-      <c r="NY1" s="1"/>
-      <c r="NZ1" s="1"/>
-      <c r="OA1" s="1"/>
-      <c r="OB1" s="1"/>
-      <c r="OC1" s="1"/>
-      <c r="OD1" s="1"/>
-      <c r="OE1" s="1"/>
-      <c r="OF1" s="1"/>
-      <c r="OG1" s="1"/>
-      <c r="OH1" s="1"/>
-      <c r="OI1" s="1"/>
-      <c r="OJ1" s="1"/>
-      <c r="OK1" s="1"/>
-      <c r="OL1" s="1"/>
-      <c r="OM1" s="1"/>
-      <c r="ON1" s="1"/>
-      <c r="OO1" s="1"/>
-      <c r="OP1" s="1"/>
-      <c r="OQ1" s="1"/>
-      <c r="OR1" s="1"/>
-      <c r="OS1" s="1"/>
-      <c r="OT1" s="1"/>
-      <c r="OU1" s="1"/>
-      <c r="OV1" s="1"/>
-      <c r="OW1" s="1"/>
-      <c r="OX1" s="1"/>
-      <c r="OY1" s="1"/>
-      <c r="OZ1" s="1"/>
-      <c r="PA1" s="1"/>
-      <c r="PB1" s="1"/>
-      <c r="PC1" s="1"/>
-      <c r="PD1" s="1"/>
-      <c r="PE1" s="1"/>
-      <c r="PF1" s="1"/>
-      <c r="PG1" s="1"/>
-      <c r="PH1" s="1"/>
-      <c r="PI1" s="1"/>
-      <c r="PJ1" s="1"/>
-      <c r="PK1" s="1"/>
-      <c r="PL1" s="1"/>
-      <c r="PM1" s="1"/>
-      <c r="PN1" s="1"/>
-      <c r="PO1" s="1"/>
-      <c r="PP1" s="1"/>
-      <c r="PQ1" s="1"/>
-      <c r="PR1" s="1"/>
-      <c r="PS1" s="1"/>
-      <c r="PT1" s="1"/>
-      <c r="PU1" s="1"/>
-      <c r="PV1" s="1"/>
-      <c r="PW1" s="1"/>
-      <c r="PX1" s="1"/>
-      <c r="PY1" s="1"/>
-      <c r="PZ1" s="1"/>
-      <c r="QA1" s="1"/>
-      <c r="QB1" s="1"/>
-      <c r="QC1" s="1"/>
-      <c r="QD1" s="1"/>
-      <c r="QE1" s="1"/>
-      <c r="QF1" s="1"/>
-      <c r="QG1" s="1"/>
-      <c r="QH1" s="1"/>
-      <c r="QI1" s="1"/>
-      <c r="QJ1" s="1"/>
-      <c r="QK1" s="1"/>
-      <c r="QL1" s="1"/>
-      <c r="QM1" s="1"/>
-      <c r="QN1" s="1"/>
-      <c r="QO1" s="1"/>
-      <c r="QP1" s="1"/>
-      <c r="QQ1" s="1"/>
-      <c r="QR1" s="1"/>
-      <c r="QS1" s="1"/>
-      <c r="QT1" s="1"/>
-      <c r="QU1" s="1"/>
-      <c r="QV1" s="1"/>
-      <c r="QW1" s="1"/>
-      <c r="QX1" s="1"/>
-      <c r="QY1" s="1"/>
-      <c r="QZ1" s="1"/>
-      <c r="RA1" s="1"/>
-      <c r="RB1" s="1"/>
-      <c r="RC1" s="1"/>
-      <c r="RD1" s="1"/>
-      <c r="RE1" s="1"/>
-      <c r="RF1" s="1"/>
-      <c r="RG1" s="1"/>
-      <c r="RH1" s="1"/>
-      <c r="RI1" s="1"/>
-      <c r="RJ1" s="1"/>
-      <c r="RK1" s="1"/>
-      <c r="RL1" s="1"/>
-      <c r="RM1" s="1"/>
-      <c r="RN1" s="1"/>
-      <c r="RO1" s="1"/>
-      <c r="RP1" s="1"/>
-      <c r="RQ1" s="1"/>
-      <c r="RR1" s="1"/>
-      <c r="RS1" s="1"/>
-      <c r="RT1" s="1"/>
-      <c r="RU1" s="1"/>
-      <c r="RV1" s="1"/>
-      <c r="RW1" s="1"/>
-      <c r="RX1" s="1"/>
-      <c r="RY1" s="1"/>
-      <c r="RZ1" s="1"/>
-      <c r="SA1" s="1"/>
-      <c r="SB1" s="1"/>
-      <c r="SC1" s="1"/>
-      <c r="SD1" s="1"/>
-      <c r="SE1" s="1"/>
-      <c r="SF1" s="1"/>
-      <c r="SG1" s="1"/>
-      <c r="SH1" s="1"/>
-      <c r="SI1" s="1"/>
-      <c r="SJ1" s="1"/>
-      <c r="SK1" s="1"/>
-      <c r="SL1" s="1"/>
-      <c r="SM1" s="1"/>
-      <c r="SN1" s="1"/>
-      <c r="SO1" s="1"/>
-      <c r="SP1" s="1"/>
-      <c r="SQ1" s="1"/>
-      <c r="SR1" s="1"/>
-      <c r="SS1" s="1"/>
-      <c r="ST1" s="1"/>
-      <c r="SU1" s="1"/>
-      <c r="SV1" s="1"/>
-      <c r="SW1" s="1"/>
-      <c r="SX1" s="1"/>
-      <c r="SY1" s="1"/>
-      <c r="SZ1" s="1"/>
-      <c r="TA1" s="1"/>
-      <c r="TB1" s="1"/>
-      <c r="TC1" s="1"/>
-      <c r="TD1" s="1"/>
-      <c r="TE1" s="1"/>
-      <c r="TF1" s="1"/>
-      <c r="TG1" s="1"/>
-      <c r="TH1" s="1"/>
-      <c r="TI1" s="1"/>
-      <c r="TJ1" s="1"/>
-      <c r="TK1" s="1"/>
-      <c r="TL1" s="1"/>
-      <c r="TM1" s="1"/>
-      <c r="TN1" s="1"/>
-      <c r="TO1" s="1"/>
-      <c r="TP1" s="1"/>
-      <c r="TQ1" s="1"/>
-      <c r="TR1" s="1"/>
-      <c r="TS1" s="1"/>
-      <c r="TT1" s="1"/>
-      <c r="TU1" s="1"/>
-      <c r="TV1" s="1"/>
-      <c r="TW1" s="1"/>
-      <c r="TX1" s="1"/>
-      <c r="TY1" s="1"/>
-      <c r="TZ1" s="1"/>
-      <c r="UA1" s="1"/>
-      <c r="UB1" s="1"/>
-      <c r="UC1" s="1"/>
-      <c r="UD1" s="1"/>
-      <c r="UE1" s="1"/>
-      <c r="UF1" s="1"/>
-      <c r="UG1" s="1"/>
-      <c r="UH1" s="1"/>
-      <c r="UI1" s="1"/>
-      <c r="UJ1" s="1"/>
-      <c r="UK1" s="1"/>
-      <c r="UL1" s="1"/>
-      <c r="UM1" s="1"/>
-      <c r="UN1" s="1"/>
-      <c r="UO1" s="1"/>
-      <c r="UP1" s="1"/>
-      <c r="UQ1" s="1"/>
-      <c r="UR1" s="1"/>
-      <c r="US1" s="1"/>
-      <c r="UT1" s="1"/>
-      <c r="UU1" s="1"/>
-      <c r="UV1" s="1"/>
-      <c r="UW1" s="1"/>
-      <c r="UX1" s="1"/>
-      <c r="UY1" s="1"/>
-      <c r="UZ1" s="1"/>
-      <c r="VA1" s="1"/>
-      <c r="VB1" s="1"/>
-      <c r="VC1" s="1"/>
-      <c r="VD1" s="1"/>
-      <c r="VE1" s="1"/>
-      <c r="VF1" s="1"/>
-      <c r="VG1" s="1"/>
-      <c r="VH1" s="1"/>
-      <c r="VI1" s="1"/>
-      <c r="VJ1" s="1"/>
-      <c r="VK1" s="1"/>
-      <c r="VL1" s="1"/>
-      <c r="VM1" s="1"/>
-      <c r="VN1" s="1"/>
-      <c r="VO1" s="1"/>
-      <c r="VP1" s="1"/>
-      <c r="VQ1" s="1"/>
-      <c r="VR1" s="1"/>
-      <c r="VS1" s="1"/>
-      <c r="VT1" s="1"/>
-      <c r="VU1" s="1"/>
-      <c r="VV1" s="1"/>
-      <c r="VW1" s="1"/>
-      <c r="VX1" s="1"/>
-      <c r="VY1" s="1"/>
-      <c r="VZ1" s="1"/>
-      <c r="WA1" s="1"/>
-      <c r="WB1" s="1"/>
-      <c r="WC1" s="1"/>
-      <c r="WD1" s="1"/>
-      <c r="WE1" s="1"/>
-      <c r="WF1" s="1"/>
-      <c r="WG1" s="1"/>
-      <c r="WH1" s="1"/>
-      <c r="WI1" s="1"/>
-      <c r="WJ1" s="1"/>
-      <c r="WK1" s="1"/>
-      <c r="WL1" s="1"/>
-      <c r="WM1" s="1"/>
-      <c r="WN1" s="1"/>
-      <c r="WO1" s="1"/>
-      <c r="WP1" s="1"/>
-      <c r="WQ1" s="1"/>
-      <c r="WR1" s="1"/>
-      <c r="WS1" s="1"/>
-      <c r="WT1" s="1"/>
-      <c r="WU1" s="1"/>
-      <c r="WV1" s="1"/>
-      <c r="WW1" s="1"/>
-      <c r="WX1" s="1"/>
-      <c r="WY1" s="1"/>
-      <c r="WZ1" s="1"/>
-      <c r="XA1" s="1"/>
-      <c r="XB1" s="1"/>
-      <c r="XC1" s="1"/>
-      <c r="XD1" s="1"/>
-      <c r="XE1" s="1"/>
-      <c r="XF1" s="1"/>
-      <c r="XG1" s="1"/>
-      <c r="XH1" s="1"/>
-      <c r="XI1" s="1"/>
-      <c r="XJ1" s="1"/>
-      <c r="XK1" s="1"/>
-      <c r="XL1" s="1"/>
-      <c r="XM1" s="1"/>
-      <c r="XN1" s="1"/>
-      <c r="XO1" s="1"/>
-      <c r="XP1" s="1"/>
-      <c r="XQ1" s="1"/>
-      <c r="XR1" s="1"/>
-      <c r="XS1" s="1"/>
-      <c r="XT1" s="1"/>
-      <c r="XU1" s="1"/>
-      <c r="XV1" s="1"/>
-      <c r="XW1" s="1"/>
-      <c r="XX1" s="1"/>
-      <c r="XY1" s="1"/>
-      <c r="XZ1" s="1"/>
-      <c r="YA1" s="1"/>
-      <c r="YB1" s="1"/>
-      <c r="YC1" s="1"/>
-      <c r="YD1" s="1"/>
-      <c r="YE1" s="1"/>
-      <c r="YF1" s="1"/>
-      <c r="YG1" s="1"/>
-      <c r="YH1" s="1"/>
-      <c r="YI1" s="1"/>
-      <c r="YJ1" s="1"/>
-      <c r="YK1" s="1"/>
-      <c r="YL1" s="1"/>
-      <c r="YM1" s="1"/>
-      <c r="YN1" s="1"/>
-      <c r="YO1" s="1"/>
-      <c r="YP1" s="1"/>
-      <c r="YQ1" s="1"/>
-      <c r="YR1" s="1"/>
-      <c r="YS1" s="1"/>
-      <c r="YT1" s="1"/>
-      <c r="YU1" s="1"/>
-      <c r="YV1" s="1"/>
-      <c r="YW1" s="1"/>
-      <c r="YX1" s="1"/>
-      <c r="YY1" s="1"/>
-      <c r="YZ1" s="1"/>
-      <c r="ZA1" s="1"/>
-      <c r="ZB1" s="1"/>
-      <c r="ZC1" s="1"/>
-      <c r="ZD1" s="1"/>
-      <c r="ZE1" s="1"/>
-      <c r="ZF1" s="1"/>
-      <c r="ZG1" s="1"/>
-      <c r="ZH1" s="1"/>
-      <c r="ZI1" s="1"/>
-      <c r="ZJ1" s="1"/>
-      <c r="ZK1" s="1"/>
-      <c r="ZL1" s="1"/>
-      <c r="ZM1" s="1"/>
-      <c r="ZN1" s="1"/>
-      <c r="ZO1" s="1"/>
-      <c r="ZP1" s="1"/>
-      <c r="ZQ1" s="1"/>
-      <c r="ZR1" s="1"/>
-      <c r="ZS1" s="1"/>
-      <c r="ZT1" s="1"/>
-      <c r="ZU1" s="1"/>
-      <c r="ZV1" s="1"/>
-      <c r="ZW1" s="1"/>
-      <c r="ZX1" s="1"/>
-      <c r="ZY1" s="1"/>
-      <c r="ZZ1" s="1"/>
-      <c r="AAA1" s="1"/>
+      <c r="B11">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -2608,6 +6233,193 @@
       <c r="ZZ1" s="1"/>
       <c r="AAA1" s="1"/>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>=SUM(RoundTable!B2:B2)</f>
+      </c>
+      <c r="C2">
+        <f>=SUM(RoundTable!D2:D2)</f>
+      </c>
+      <c r="D2">
+        <f>=AVERAGE(RoundTable!F2:F2)</f>
+      </c>
+      <c r="E2">
+        <f>=SUM(RoundTable!H2:H2)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>=SUM(RoundTable!B2:B3)</f>
+      </c>
+      <c r="C3">
+        <f>=SUM(RoundTable!D2:D3)</f>
+      </c>
+      <c r="D3">
+        <f>=AVERAGE(RoundTable!F2:F3)</f>
+      </c>
+      <c r="E3">
+        <f>=SUM(RoundTable!H2:H3)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>=SUM(RoundTable!B2:B4)</f>
+      </c>
+      <c r="C4">
+        <f>=SUM(RoundTable!D2:D4)</f>
+      </c>
+      <c r="D4">
+        <f>=AVERAGE(RoundTable!F2:F4)</f>
+      </c>
+      <c r="E4">
+        <f>=SUM(RoundTable!H2:H4)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>=SUM(RoundTable!B2:B5)</f>
+      </c>
+      <c r="C5">
+        <f>=SUM(RoundTable!D2:D5)</f>
+      </c>
+      <c r="D5">
+        <f>=AVERAGE(RoundTable!F2:F5)</f>
+      </c>
+      <c r="E5">
+        <f>=SUM(RoundTable!H2:H5)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>=SUM(RoundTable!B2:B6)</f>
+      </c>
+      <c r="C6">
+        <f>=SUM(RoundTable!D2:D6)</f>
+      </c>
+      <c r="D6">
+        <f>=AVERAGE(RoundTable!F2:F6)</f>
+      </c>
+      <c r="E6">
+        <f>=SUM(RoundTable!H2:H6)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>=SUM(RoundTable!B2:B7)</f>
+      </c>
+      <c r="C7">
+        <f>=SUM(RoundTable!D2:D7)</f>
+      </c>
+      <c r="D7">
+        <f>=AVERAGE(RoundTable!F2:F7)</f>
+      </c>
+      <c r="E7">
+        <f>=SUM(RoundTable!H2:H7)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>=SUM(RoundTable!B2:B8)</f>
+      </c>
+      <c r="C8">
+        <f>=SUM(RoundTable!D2:D8)</f>
+      </c>
+      <c r="D8">
+        <f>=AVERAGE(RoundTable!F2:F8)</f>
+      </c>
+      <c r="E8">
+        <f>=SUM(RoundTable!H2:H8)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>=SUM(RoundTable!B2:B9)</f>
+      </c>
+      <c r="C9">
+        <f>=SUM(RoundTable!D2:D9)</f>
+      </c>
+      <c r="D9">
+        <f>=AVERAGE(RoundTable!F2:F9)</f>
+      </c>
+      <c r="E9">
+        <f>=SUM(RoundTable!H2:H9)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>=SUM(RoundTable!B2:B10)</f>
+      </c>
+      <c r="C10">
+        <f>=SUM(RoundTable!D2:D10)</f>
+      </c>
+      <c r="D10">
+        <f>=AVERAGE(RoundTable!F2:F10)</f>
+      </c>
+      <c r="E10">
+        <f>=SUM(RoundTable!H2:H10)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>=SUM(RoundTable!B2:B11)</f>
+      </c>
+      <c r="C11">
+        <f>=SUM(RoundTable!D2:D11)</f>
+      </c>
+      <c r="D11">
+        <f>=AVERAGE(RoundTable!F2:F11)</f>
+      </c>
+      <c r="E11">
+        <f>=SUM(RoundTable!H2:H11)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>=SUM(RoundTable!B2:B12)</f>
+      </c>
+      <c r="C12">
+        <f>=SUM(RoundTable!D2:D12)</f>
+      </c>
+      <c r="D12">
+        <f>=AVERAGE(RoundTable!F2:F12)</f>
+      </c>
+      <c r="E12">
+        <f>=SUM(RoundTable!H2:H12)</f>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/simulation/manage/simulation/sidechainbc.xlsx
+++ b/simulation/manage/simulation/sidechainbc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -76,43 +76,163 @@
     <t>OverallBlockSpaceFull</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:32-04:00</t>
+    <t>2022-10-19T10:55:14-04:00</t>
   </si>
   <si>
-    <t>tcp://127.0.0.1:61986</t>
+    <t>tcp://127.0.0.1:51507</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:33-04:00</t>
+    <t>2022-10-19T10:55:15-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:34-04:00</t>
+    <t>2022-10-19T10:55:17-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:35-04:00</t>
+    <t>2022-10-19T10:55:18-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:37-04:00</t>
+    <t>2022-10-19T10:55:19-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:38-04:00</t>
+    <t>2022-10-19T10:55:20-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:39-04:00</t>
+    <t>2022-10-19T10:55:21-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:40-04:00</t>
+    <t>2022-10-19T10:55:22-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:41-04:00</t>
+    <t>2022-10-19T10:55:23-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:42-04:00</t>
+    <t>2022-10-19T10:55:24-04:00</t>
   </si>
   <si>
-    <t>2022-09-23T12:29:45-04:00</t>
+    <t>2022-10-19T10:55:26-04:00</t>
   </si>
   <si>
-    <t>tcp://127.0.0.1:61990</t>
+    <t>tcp://127.0.0.1:51529</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:27-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:28-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:29-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:31-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:33-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:34-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:35-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:36-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:37-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:40-04:00</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51511</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:41-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:42-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:43-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:44-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:47-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:48-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:49-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:50-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:51-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:53-04:00</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51531</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:55-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:56-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:57-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:55:58-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:00-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:01-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:03-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:04-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:05-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:07-04:00</t>
+  </si>
+  <si>
+    <t>tcp://127.0.0.1:51575</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:08-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:09-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:11-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:12-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:14-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:15-04:00</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:56:16-04:00</t>
   </si>
 </sst>
 </file>
@@ -467,16 +587,16 @@
         <v>515</v>
       </c>
       <c r="C2" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +607,16 @@
         <v>515</v>
       </c>
       <c r="C3" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -507,16 +627,16 @@
         <v>515</v>
       </c>
       <c r="C4" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" t="str">
         <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -527,16 +647,16 @@
         <v>515</v>
       </c>
       <c r="C5" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" t="str">
         <v>3</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +667,16 @@
         <v>515</v>
       </c>
       <c r="C6" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" t="str">
         <v>4</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -567,16 +687,16 @@
         <v>515</v>
       </c>
       <c r="C7" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D7" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="str">
         <v>5</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +707,16 @@
         <v>515</v>
       </c>
       <c r="C8" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D8" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="str">
         <v>7</v>
       </c>
       <c r="F8" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -607,16 +727,16 @@
         <v>515</v>
       </c>
       <c r="C9" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D9" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -627,16 +747,16 @@
         <v>515</v>
       </c>
       <c r="C10" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D10" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10" t="str">
+        <v>10</v>
+      </c>
+      <c r="F10" t="str">
         <v>9</v>
-      </c>
-      <c r="F10" t="str">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -647,16 +767,16 @@
         <v>515</v>
       </c>
       <c r="C11" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D11" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -667,16 +787,16 @@
         <v>515</v>
       </c>
       <c r="C12" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D12" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -687,16 +807,16 @@
         <v>515</v>
       </c>
       <c r="C13" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D13" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="str">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -707,16 +827,16 @@
         <v>515</v>
       </c>
       <c r="C14" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D14" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" t="str">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -727,16 +847,16 @@
         <v>515</v>
       </c>
       <c r="C15" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D15" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -747,16 +867,16 @@
         <v>515</v>
       </c>
       <c r="C16" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D16" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" t="str">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -767,16 +887,16 @@
         <v>515</v>
       </c>
       <c r="C17" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D17" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" t="str">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -787,16 +907,16 @@
         <v>515</v>
       </c>
       <c r="C18" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D18" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" t="str">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -807,16 +927,16 @@
         <v>515</v>
       </c>
       <c r="C19" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D19" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" t="str">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -827,16 +947,16 @@
         <v>515</v>
       </c>
       <c r="C20" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D20" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" t="str">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -847,16 +967,16 @@
         <v>515</v>
       </c>
       <c r="C21" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D21" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -867,16 +987,16 @@
         <v>515</v>
       </c>
       <c r="C22" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D22" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" t="str">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -887,16 +1007,16 @@
         <v>515</v>
       </c>
       <c r="C23" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D23" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F23" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -907,16 +1027,16 @@
         <v>515</v>
       </c>
       <c r="C24" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D24" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" t="str">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F24" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -927,16 +1047,16 @@
         <v>515</v>
       </c>
       <c r="C25" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D25" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F25" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -947,16 +1067,16 @@
         <v>515</v>
       </c>
       <c r="C26" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D26" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -967,16 +1087,16 @@
         <v>515</v>
       </c>
       <c r="C27" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D27" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" t="str">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F27" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -987,16 +1107,16 @@
         <v>515</v>
       </c>
       <c r="C28" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D28" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" t="str">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F28" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1007,16 +1127,16 @@
         <v>515</v>
       </c>
       <c r="C29" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D29" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E29" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F29" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1027,16 +1147,16 @@
         <v>515</v>
       </c>
       <c r="C30" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D30" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30" t="str">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1047,16 +1167,16 @@
         <v>515</v>
       </c>
       <c r="C31" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D31" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" t="str">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F31" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1067,16 +1187,16 @@
         <v>515</v>
       </c>
       <c r="C32" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D32" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E32" t="str">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F32" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1087,16 +1207,16 @@
         <v>515</v>
       </c>
       <c r="C33" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D33" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33" t="str">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F33" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1107,16 +1227,16 @@
         <v>515</v>
       </c>
       <c r="C34" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D34" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34" t="str">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F34" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1127,16 +1247,16 @@
         <v>515</v>
       </c>
       <c r="C35" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D35" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" t="str">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F35" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1147,16 +1267,16 @@
         <v>515</v>
       </c>
       <c r="C36" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:14-04:00</v>
       </c>
       <c r="D36" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" t="str">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F36" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1167,16 +1287,16 @@
         <v>515</v>
       </c>
       <c r="C37" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D37" t="str">
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F37" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1187,16 +1307,16 @@
         <v>515</v>
       </c>
       <c r="C38" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D38" t="str">
         <v>1</v>
       </c>
       <c r="E38" t="str">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F38" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1207,16 +1327,16 @@
         <v>515</v>
       </c>
       <c r="C39" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D39" t="str">
         <v>1</v>
       </c>
       <c r="E39" t="str">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F39" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1227,16 +1347,16 @@
         <v>515</v>
       </c>
       <c r="C40" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D40" t="str">
         <v>1</v>
       </c>
       <c r="E40" t="str">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F40" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1247,16 +1367,16 @@
         <v>515</v>
       </c>
       <c r="C41" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D41" t="str">
         <v>1</v>
       </c>
       <c r="E41" t="str">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F41" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1267,16 +1387,16 @@
         <v>515</v>
       </c>
       <c r="C42" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D42" t="str">
         <v>1</v>
       </c>
       <c r="E42" t="str">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F42" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1287,16 +1407,16 @@
         <v>515</v>
       </c>
       <c r="C43" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D43" t="str">
         <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F43" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1307,16 +1427,16 @@
         <v>515</v>
       </c>
       <c r="C44" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D44" t="str">
         <v>1</v>
       </c>
       <c r="E44" t="str">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F44" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1327,16 +1447,16 @@
         <v>515</v>
       </c>
       <c r="C45" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D45" t="str">
         <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F45" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1347,16 +1467,16 @@
         <v>515</v>
       </c>
       <c r="C46" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D46" t="str">
         <v>1</v>
       </c>
       <c r="E46" t="str">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F46" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1367,16 +1487,16 @@
         <v>515</v>
       </c>
       <c r="C47" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D47" t="str">
         <v>1</v>
       </c>
       <c r="E47" t="str">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F47" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1387,16 +1507,16 @@
         <v>515</v>
       </c>
       <c r="C48" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D48" t="str">
         <v>1</v>
       </c>
       <c r="E48" t="str">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F48" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1407,16 +1527,16 @@
         <v>515</v>
       </c>
       <c r="C49" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D49" t="str">
         <v>1</v>
       </c>
       <c r="E49" t="str">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F49" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1427,16 +1547,16 @@
         <v>515</v>
       </c>
       <c r="C50" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D50" t="str">
         <v>1</v>
       </c>
       <c r="E50" t="str">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F50" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1447,16 +1567,16 @@
         <v>515</v>
       </c>
       <c r="C51" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D51" t="str">
         <v>1</v>
       </c>
       <c r="E51" t="str">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F51" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1467,16 +1587,16 @@
         <v>515</v>
       </c>
       <c r="C52" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D52" t="str">
         <v>1</v>
       </c>
       <c r="E52" t="str">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F52" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1487,16 +1607,16 @@
         <v>515</v>
       </c>
       <c r="C53" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D53" t="str">
         <v>1</v>
       </c>
       <c r="E53" t="str">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F53" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1507,16 +1627,16 @@
         <v>515</v>
       </c>
       <c r="C54" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D54" t="str">
         <v>1</v>
       </c>
       <c r="E54" t="str">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F54" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1527,16 +1647,16 @@
         <v>515</v>
       </c>
       <c r="C55" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D55" t="str">
         <v>1</v>
       </c>
       <c r="E55" t="str">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F55" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1547,16 +1667,16 @@
         <v>515</v>
       </c>
       <c r="C56" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D56" t="str">
         <v>1</v>
       </c>
       <c r="E56" t="str">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F56" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1567,16 +1687,16 @@
         <v>515</v>
       </c>
       <c r="C57" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D57" t="str">
         <v>1</v>
       </c>
       <c r="E57" t="str">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F57" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1587,16 +1707,16 @@
         <v>515</v>
       </c>
       <c r="C58" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D58" t="str">
         <v>1</v>
       </c>
       <c r="E58" t="str">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F58" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1607,16 +1727,16 @@
         <v>515</v>
       </c>
       <c r="C59" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D59" t="str">
         <v>1</v>
       </c>
       <c r="E59" t="str">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F59" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1627,16 +1747,16 @@
         <v>515</v>
       </c>
       <c r="C60" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D60" t="str">
         <v>1</v>
       </c>
       <c r="E60" t="str">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F60" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1647,16 +1767,16 @@
         <v>515</v>
       </c>
       <c r="C61" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D61" t="str">
         <v>1</v>
       </c>
       <c r="E61" t="str">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F61" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1667,16 +1787,16 @@
         <v>515</v>
       </c>
       <c r="C62" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D62" t="str">
         <v>1</v>
       </c>
       <c r="E62" t="str">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F62" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1687,16 +1807,16 @@
         <v>515</v>
       </c>
       <c r="C63" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D63" t="str">
         <v>1</v>
       </c>
       <c r="E63" t="str">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F63" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1707,16 +1827,16 @@
         <v>515</v>
       </c>
       <c r="C64" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D64" t="str">
         <v>1</v>
       </c>
       <c r="E64" t="str">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F64" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1727,16 +1847,16 @@
         <v>515</v>
       </c>
       <c r="C65" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D65" t="str">
         <v>1</v>
       </c>
       <c r="E65" t="str">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F65" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -1747,16 +1867,16 @@
         <v>515</v>
       </c>
       <c r="C66" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D66" t="str">
         <v>1</v>
       </c>
       <c r="E66" t="str">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F66" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1767,16 +1887,16 @@
         <v>515</v>
       </c>
       <c r="C67" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D67" t="str">
         <v>1</v>
       </c>
       <c r="E67" t="str">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F67" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -1787,16 +1907,16 @@
         <v>515</v>
       </c>
       <c r="C68" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D68" t="str">
         <v>1</v>
       </c>
       <c r="E68" t="str">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F68" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1807,16 +1927,16 @@
         <v>515</v>
       </c>
       <c r="C69" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D69" t="str">
         <v>1</v>
       </c>
       <c r="E69" t="str">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F69" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1827,16 +1947,16 @@
         <v>515</v>
       </c>
       <c r="C70" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D70" t="str">
         <v>1</v>
       </c>
       <c r="E70" t="str">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F70" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1847,16 +1967,16 @@
         <v>515</v>
       </c>
       <c r="C71" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:07-04:00</v>
       </c>
       <c r="D71" t="str">
         <v>1</v>
       </c>
       <c r="E71" t="str">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F71" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -1867,16 +1987,16 @@
         <v>515</v>
       </c>
       <c r="C72" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D72" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E72" t="str">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1887,16 +2007,16 @@
         <v>515</v>
       </c>
       <c r="C73" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D73" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E73" t="str">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F73" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1907,16 +2027,16 @@
         <v>515</v>
       </c>
       <c r="C74" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D74" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E74" t="str">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="F74" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -1927,16 +2047,16 @@
         <v>515</v>
       </c>
       <c r="C75" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D75" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E75" t="str">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="F75" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -1947,16 +2067,16 @@
         <v>515</v>
       </c>
       <c r="C76" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D76" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E76" t="str">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F76" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -1967,16 +2087,16 @@
         <v>515</v>
       </c>
       <c r="C77" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D77" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E77" t="str">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="F77" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -1987,16 +2107,16 @@
         <v>515</v>
       </c>
       <c r="C78" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D78" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E78" t="str">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F78" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2007,16 +2127,16 @@
         <v>515</v>
       </c>
       <c r="C79" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D79" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E79" t="str">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F79" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -2027,16 +2147,16 @@
         <v>515</v>
       </c>
       <c r="C80" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D80" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E80" t="str">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F80" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2047,16 +2167,16 @@
         <v>515</v>
       </c>
       <c r="C81" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D81" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E81" t="str">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F81" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -2067,16 +2187,16 @@
         <v>515</v>
       </c>
       <c r="C82" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D82" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E82" t="str">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F82" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2087,16 +2207,16 @@
         <v>515</v>
       </c>
       <c r="C83" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D83" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83" t="str">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F83" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2107,16 +2227,16 @@
         <v>515</v>
       </c>
       <c r="C84" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D84" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84" t="str">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F84" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -2127,16 +2247,16 @@
         <v>515</v>
       </c>
       <c r="C85" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D85" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E85" t="str">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F85" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2147,16 +2267,16 @@
         <v>515</v>
       </c>
       <c r="C86" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D86" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E86" t="str">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F86" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2167,16 +2287,16 @@
         <v>515</v>
       </c>
       <c r="C87" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D87" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E87" t="str">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F87" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2187,16 +2307,16 @@
         <v>515</v>
       </c>
       <c r="C88" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D88" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E88" t="str">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F88" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2207,16 +2327,16 @@
         <v>515</v>
       </c>
       <c r="C89" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D89" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E89" t="str">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F89" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2227,16 +2347,16 @@
         <v>515</v>
       </c>
       <c r="C90" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D90" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E90" t="str">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F90" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -2247,16 +2367,16 @@
         <v>515</v>
       </c>
       <c r="C91" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D91" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E91" t="str">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F91" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -2267,16 +2387,16 @@
         <v>515</v>
       </c>
       <c r="C92" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D92" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E92" t="str">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="F92" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2287,16 +2407,16 @@
         <v>515</v>
       </c>
       <c r="C93" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D93" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E93" t="str">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F93" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2307,16 +2427,16 @@
         <v>515</v>
       </c>
       <c r="C94" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D94" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E94" t="str">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F94" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2327,16 +2447,16 @@
         <v>515</v>
       </c>
       <c r="C95" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D95" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E95" t="str">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="F95" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2347,16 +2467,16 @@
         <v>515</v>
       </c>
       <c r="C96" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D96" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E96" t="str">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F96" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2367,16 +2487,16 @@
         <v>515</v>
       </c>
       <c r="C97" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D97" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E97" t="str">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F97" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -2387,16 +2507,16 @@
         <v>515</v>
       </c>
       <c r="C98" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D98" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E98" t="str">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F98" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2407,16 +2527,16 @@
         <v>515</v>
       </c>
       <c r="C99" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D99" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E99" t="str">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="F99" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -2427,16 +2547,16 @@
         <v>515</v>
       </c>
       <c r="C100" t="str">
-        <v>2022-09-23T12:29:45-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D100" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E100" t="str">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F100" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2447,16 +2567,16 @@
         <v>515</v>
       </c>
       <c r="C101" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D101" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E101" t="str">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F101" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2467,16 +2587,16 @@
         <v>515</v>
       </c>
       <c r="C102" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D102" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E102" t="str">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F102" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -2487,16 +2607,16 @@
         <v>515</v>
       </c>
       <c r="C103" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D103" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E103" t="str">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F103" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -2507,16 +2627,16 @@
         <v>515</v>
       </c>
       <c r="C104" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D104" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E104" t="str">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F104" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2527,16 +2647,16 @@
         <v>515</v>
       </c>
       <c r="C105" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D105" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E105" t="str">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F105" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2547,16 +2667,16 @@
         <v>515</v>
       </c>
       <c r="C106" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:56:00-04:00</v>
       </c>
       <c r="D106" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E106" t="str">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F106" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2567,16 +2687,16 @@
         <v>515</v>
       </c>
       <c r="C107" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D107" t="str">
         <v>1</v>
       </c>
       <c r="E107" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -2587,16 +2707,16 @@
         <v>515</v>
       </c>
       <c r="C108" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D108" t="str">
         <v>1</v>
       </c>
       <c r="E108" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F108" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -2607,16 +2727,16 @@
         <v>515</v>
       </c>
       <c r="C109" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D109" t="str">
         <v>1</v>
       </c>
       <c r="E109" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F109" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -2627,16 +2747,16 @@
         <v>515</v>
       </c>
       <c r="C110" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D110" t="str">
         <v>1</v>
       </c>
       <c r="E110" t="str">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F110" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -2647,16 +2767,16 @@
         <v>515</v>
       </c>
       <c r="C111" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D111" t="str">
         <v>1</v>
       </c>
       <c r="E111" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F111" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -2667,16 +2787,16 @@
         <v>515</v>
       </c>
       <c r="C112" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D112" t="str">
         <v>1</v>
       </c>
       <c r="E112" t="str">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F112" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -2687,16 +2807,16 @@
         <v>515</v>
       </c>
       <c r="C113" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D113" t="str">
         <v>1</v>
       </c>
       <c r="E113" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F113" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -2707,16 +2827,16 @@
         <v>515</v>
       </c>
       <c r="C114" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D114" t="str">
         <v>1</v>
       </c>
       <c r="E114" t="str">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F114" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -2727,16 +2847,16 @@
         <v>515</v>
       </c>
       <c r="C115" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D115" t="str">
         <v>1</v>
       </c>
       <c r="E115" t="str">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F115" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -2747,16 +2867,16 @@
         <v>515</v>
       </c>
       <c r="C116" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D116" t="str">
         <v>1</v>
       </c>
       <c r="E116" t="str">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F116" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -2767,16 +2887,16 @@
         <v>515</v>
       </c>
       <c r="C117" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D117" t="str">
         <v>1</v>
       </c>
       <c r="E117" t="str">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F117" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -2787,16 +2907,16 @@
         <v>515</v>
       </c>
       <c r="C118" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D118" t="str">
         <v>1</v>
       </c>
       <c r="E118" t="str">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F118" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -2807,16 +2927,16 @@
         <v>515</v>
       </c>
       <c r="C119" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D119" t="str">
         <v>1</v>
       </c>
       <c r="E119" t="str">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F119" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -2827,16 +2947,16 @@
         <v>515</v>
       </c>
       <c r="C120" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D120" t="str">
         <v>1</v>
       </c>
       <c r="E120" t="str">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F120" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -2847,16 +2967,16 @@
         <v>515</v>
       </c>
       <c r="C121" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D121" t="str">
         <v>1</v>
       </c>
       <c r="E121" t="str">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F121" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -2867,16 +2987,16 @@
         <v>515</v>
       </c>
       <c r="C122" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D122" t="str">
         <v>1</v>
       </c>
       <c r="E122" t="str">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F122" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -2887,16 +3007,16 @@
         <v>515</v>
       </c>
       <c r="C123" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D123" t="str">
         <v>1</v>
       </c>
       <c r="E123" t="str">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F123" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -2907,16 +3027,16 @@
         <v>515</v>
       </c>
       <c r="C124" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D124" t="str">
         <v>1</v>
       </c>
       <c r="E124" t="str">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F124" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -2927,16 +3047,16 @@
         <v>515</v>
       </c>
       <c r="C125" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D125" t="str">
         <v>1</v>
       </c>
       <c r="E125" t="str">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F125" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -2947,16 +3067,16 @@
         <v>515</v>
       </c>
       <c r="C126" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D126" t="str">
         <v>1</v>
       </c>
       <c r="E126" t="str">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F126" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -2967,16 +3087,16 @@
         <v>515</v>
       </c>
       <c r="C127" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D127" t="str">
         <v>1</v>
       </c>
       <c r="E127" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F127" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -2987,16 +3107,16 @@
         <v>515</v>
       </c>
       <c r="C128" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D128" t="str">
         <v>1</v>
       </c>
       <c r="E128" t="str">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F128" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -3007,16 +3127,16 @@
         <v>515</v>
       </c>
       <c r="C129" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D129" t="str">
         <v>1</v>
       </c>
       <c r="E129" t="str">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F129" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -3027,16 +3147,16 @@
         <v>515</v>
       </c>
       <c r="C130" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D130" t="str">
         <v>1</v>
       </c>
       <c r="E130" t="str">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F130" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
@@ -3047,16 +3167,16 @@
         <v>515</v>
       </c>
       <c r="C131" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D131" t="str">
         <v>1</v>
       </c>
       <c r="E131" t="str">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F131" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -3067,16 +3187,16 @@
         <v>515</v>
       </c>
       <c r="C132" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D132" t="str">
         <v>1</v>
       </c>
       <c r="E132" t="str">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F132" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -3087,16 +3207,16 @@
         <v>515</v>
       </c>
       <c r="C133" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D133" t="str">
         <v>1</v>
       </c>
       <c r="E133" t="str">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F133" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -3107,16 +3227,16 @@
         <v>515</v>
       </c>
       <c r="C134" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D134" t="str">
         <v>1</v>
       </c>
       <c r="E134" t="str">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F134" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -3127,16 +3247,16 @@
         <v>515</v>
       </c>
       <c r="C135" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D135" t="str">
         <v>1</v>
       </c>
       <c r="E135" t="str">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F135" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
@@ -3147,16 +3267,16 @@
         <v>515</v>
       </c>
       <c r="C136" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D136" t="str">
         <v>1</v>
       </c>
       <c r="E136" t="str">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F136" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -3167,16 +3287,16 @@
         <v>515</v>
       </c>
       <c r="C137" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D137" t="str">
         <v>1</v>
       </c>
       <c r="E137" t="str">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F137" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -3187,16 +3307,16 @@
         <v>515</v>
       </c>
       <c r="C138" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D138" t="str">
         <v>1</v>
       </c>
       <c r="E138" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F138" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -3207,16 +3327,16 @@
         <v>515</v>
       </c>
       <c r="C139" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D139" t="str">
         <v>1</v>
       </c>
       <c r="E139" t="str">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F139" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -3227,16 +3347,16 @@
         <v>515</v>
       </c>
       <c r="C140" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D140" t="str">
         <v>1</v>
       </c>
       <c r="E140" t="str">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F140" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -3247,16 +3367,16 @@
         <v>515</v>
       </c>
       <c r="C141" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D141" t="str">
         <v>1</v>
       </c>
       <c r="E141" t="str">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F141" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -3267,16 +3387,16 @@
         <v>515</v>
       </c>
       <c r="C142" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:53-04:00</v>
       </c>
       <c r="D142" t="str">
         <v>1</v>
       </c>
       <c r="E142" t="str">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F142" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -3287,16 +3407,16 @@
         <v>515</v>
       </c>
       <c r="C143" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D143" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E143" t="str">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -3307,16 +3427,16 @@
         <v>515</v>
       </c>
       <c r="C144" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D144" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E144" t="str">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F144" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -3327,16 +3447,16 @@
         <v>515</v>
       </c>
       <c r="C145" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D145" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E145" t="str">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F145" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -3347,16 +3467,16 @@
         <v>515</v>
       </c>
       <c r="C146" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D146" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E146" t="str">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F146" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -3367,16 +3487,16 @@
         <v>515</v>
       </c>
       <c r="C147" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D147" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E147" t="str">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F147" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -3387,16 +3507,16 @@
         <v>515</v>
       </c>
       <c r="C148" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D148" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E148" t="str">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F148" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -3407,16 +3527,16 @@
         <v>515</v>
       </c>
       <c r="C149" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D149" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E149" t="str">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F149" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -3427,16 +3547,16 @@
         <v>515</v>
       </c>
       <c r="C150" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D150" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E150" t="str">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F150" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -3447,16 +3567,16 @@
         <v>515</v>
       </c>
       <c r="C151" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D151" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E151" t="str">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F151" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
@@ -3467,16 +3587,16 @@
         <v>515</v>
       </c>
       <c r="C152" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D152" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E152" t="str">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F152" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -3487,16 +3607,16 @@
         <v>515</v>
       </c>
       <c r="C153" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D153" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E153" t="str">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F153" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -3507,16 +3627,16 @@
         <v>515</v>
       </c>
       <c r="C154" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D154" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E154" t="str">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F154" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -3527,16 +3647,16 @@
         <v>515</v>
       </c>
       <c r="C155" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D155" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E155" t="str">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F155" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -3547,16 +3667,16 @@
         <v>515</v>
       </c>
       <c r="C156" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D156" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E156" t="str">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F156" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -3567,16 +3687,16 @@
         <v>515</v>
       </c>
       <c r="C157" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D157" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E157" t="str">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F157" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -3587,16 +3707,16 @@
         <v>515</v>
       </c>
       <c r="C158" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D158" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E158" t="str">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F158" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -3607,16 +3727,16 @@
         <v>515</v>
       </c>
       <c r="C159" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D159" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E159" t="str">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F159" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -3627,16 +3747,16 @@
         <v>515</v>
       </c>
       <c r="C160" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D160" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E160" t="str">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F160" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
@@ -3647,16 +3767,16 @@
         <v>515</v>
       </c>
       <c r="C161" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D161" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E161" t="str">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F161" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -3667,16 +3787,16 @@
         <v>515</v>
       </c>
       <c r="C162" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D162" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E162" t="str">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F162" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -3687,16 +3807,16 @@
         <v>515</v>
       </c>
       <c r="C163" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D163" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E163" t="str">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F163" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -3707,16 +3827,16 @@
         <v>515</v>
       </c>
       <c r="C164" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D164" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E164" t="str">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F164" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
@@ -3727,16 +3847,16 @@
         <v>515</v>
       </c>
       <c r="C165" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D165" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E165" t="str">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F165" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -3747,16 +3867,16 @@
         <v>515</v>
       </c>
       <c r="C166" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D166" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E166" t="str">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F166" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -3767,16 +3887,16 @@
         <v>515</v>
       </c>
       <c r="C167" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D167" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E167" t="str">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F167" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
@@ -3787,16 +3907,16 @@
         <v>515</v>
       </c>
       <c r="C168" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D168" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E168" t="str">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F168" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -3807,16 +3927,16 @@
         <v>515</v>
       </c>
       <c r="C169" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D169" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E169" t="str">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F169" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
@@ -3827,16 +3947,16 @@
         <v>515</v>
       </c>
       <c r="C170" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D170" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E170" t="str">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F170" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -3847,16 +3967,16 @@
         <v>515</v>
       </c>
       <c r="C171" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D171" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E171" t="str">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F171" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
@@ -3867,16 +3987,16 @@
         <v>515</v>
       </c>
       <c r="C172" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D172" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E172" t="str">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F172" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -3887,16 +4007,16 @@
         <v>515</v>
       </c>
       <c r="C173" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D173" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E173" t="str">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F173" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
@@ -3907,16 +4027,16 @@
         <v>515</v>
       </c>
       <c r="C174" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D174" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E174" t="str">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F174" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
@@ -3927,16 +4047,16 @@
         <v>515</v>
       </c>
       <c r="C175" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D175" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E175" t="str">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F175" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
@@ -3947,16 +4067,16 @@
         <v>515</v>
       </c>
       <c r="C176" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D176" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E176" t="str">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F176" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -3967,16 +4087,16 @@
         <v>515</v>
       </c>
       <c r="C177" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D177" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E177" t="str">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F177" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -3987,16 +4107,16 @@
         <v>515</v>
       </c>
       <c r="C178" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:47-04:00</v>
       </c>
       <c r="D178" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E178" t="str">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F178" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -4007,16 +4127,16 @@
         <v>515</v>
       </c>
       <c r="C179" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D179" t="str">
         <v>1</v>
       </c>
       <c r="E179" t="str">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -4027,16 +4147,16 @@
         <v>515</v>
       </c>
       <c r="C180" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D180" t="str">
         <v>1</v>
       </c>
       <c r="E180" t="str">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="F180" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -4047,16 +4167,16 @@
         <v>515</v>
       </c>
       <c r="C181" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D181" t="str">
         <v>1</v>
       </c>
       <c r="E181" t="str">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F181" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -4067,16 +4187,16 @@
         <v>515</v>
       </c>
       <c r="C182" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D182" t="str">
         <v>1</v>
       </c>
       <c r="E182" t="str">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="F182" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -4087,16 +4207,16 @@
         <v>515</v>
       </c>
       <c r="C183" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D183" t="str">
         <v>1</v>
       </c>
       <c r="E183" t="str">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="F183" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -4107,16 +4227,16 @@
         <v>515</v>
       </c>
       <c r="C184" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D184" t="str">
         <v>1</v>
       </c>
       <c r="E184" t="str">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="F184" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -4127,16 +4247,16 @@
         <v>515</v>
       </c>
       <c r="C185" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D185" t="str">
         <v>1</v>
       </c>
       <c r="E185" t="str">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F185" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -4147,16 +4267,16 @@
         <v>515</v>
       </c>
       <c r="C186" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D186" t="str">
         <v>1</v>
       </c>
       <c r="E186" t="str">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="F186" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -4167,16 +4287,16 @@
         <v>515</v>
       </c>
       <c r="C187" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D187" t="str">
         <v>1</v>
       </c>
       <c r="E187" t="str">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F187" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -4187,16 +4307,16 @@
         <v>515</v>
       </c>
       <c r="C188" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D188" t="str">
         <v>1</v>
       </c>
       <c r="E188" t="str">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F188" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -4207,16 +4327,16 @@
         <v>515</v>
       </c>
       <c r="C189" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D189" t="str">
         <v>1</v>
       </c>
       <c r="E189" t="str">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="F189" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -4227,16 +4347,16 @@
         <v>515</v>
       </c>
       <c r="C190" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D190" t="str">
         <v>1</v>
       </c>
       <c r="E190" t="str">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F190" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -4247,16 +4367,16 @@
         <v>515</v>
       </c>
       <c r="C191" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D191" t="str">
         <v>1</v>
       </c>
       <c r="E191" t="str">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F191" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -4267,16 +4387,16 @@
         <v>515</v>
       </c>
       <c r="C192" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D192" t="str">
         <v>1</v>
       </c>
       <c r="E192" t="str">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="F192" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -4287,16 +4407,16 @@
         <v>515</v>
       </c>
       <c r="C193" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D193" t="str">
         <v>1</v>
       </c>
       <c r="E193" t="str">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F193" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -4307,16 +4427,16 @@
         <v>515</v>
       </c>
       <c r="C194" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D194" t="str">
         <v>1</v>
       </c>
       <c r="E194" t="str">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F194" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -4327,16 +4447,16 @@
         <v>515</v>
       </c>
       <c r="C195" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D195" t="str">
         <v>1</v>
       </c>
       <c r="E195" t="str">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F195" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -4347,16 +4467,16 @@
         <v>515</v>
       </c>
       <c r="C196" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D196" t="str">
         <v>1</v>
       </c>
       <c r="E196" t="str">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F196" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -4367,16 +4487,16 @@
         <v>515</v>
       </c>
       <c r="C197" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D197" t="str">
         <v>1</v>
       </c>
       <c r="E197" t="str">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="F197" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -4387,16 +4507,16 @@
         <v>515</v>
       </c>
       <c r="C198" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D198" t="str">
         <v>1</v>
       </c>
       <c r="E198" t="str">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F198" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -4407,16 +4527,16 @@
         <v>515</v>
       </c>
       <c r="C199" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D199" t="str">
         <v>1</v>
       </c>
       <c r="E199" t="str">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="F199" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -4427,15 +4547,2615 @@
         <v>515</v>
       </c>
       <c r="C200" t="str">
-        <v>2022-09-23T12:29:27-04:00</v>
+        <v>2022-10-19T10:55:40-04:00</v>
       </c>
       <c r="D200" t="str">
         <v>1</v>
       </c>
       <c r="E200" t="str">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="F200" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B201" t="str">
+        <v>515</v>
+      </c>
+      <c r="C201" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D201" t="str">
+        <v>1</v>
+      </c>
+      <c r="E201" t="str">
+        <v>26</v>
+      </c>
+      <c r="F201" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B202" t="str">
+        <v>515</v>
+      </c>
+      <c r="C202" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D202" t="str">
+        <v>1</v>
+      </c>
+      <c r="E202" t="str">
+        <v>27</v>
+      </c>
+      <c r="F202" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B203" t="str">
+        <v>515</v>
+      </c>
+      <c r="C203" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D203" t="str">
+        <v>1</v>
+      </c>
+      <c r="E203" t="str">
+        <v>28</v>
+      </c>
+      <c r="F203" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B204" t="str">
+        <v>515</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D204" t="str">
+        <v>1</v>
+      </c>
+      <c r="E204" t="str">
+        <v>29</v>
+      </c>
+      <c r="F204" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B205" t="str">
+        <v>515</v>
+      </c>
+      <c r="C205" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D205" t="str">
+        <v>1</v>
+      </c>
+      <c r="E205" t="str">
+        <v>30</v>
+      </c>
+      <c r="F205" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B206" t="str">
+        <v>515</v>
+      </c>
+      <c r="C206" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D206" t="str">
+        <v>1</v>
+      </c>
+      <c r="E206" t="str">
+        <v>31</v>
+      </c>
+      <c r="F206" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B207" t="str">
+        <v>515</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D207" t="str">
+        <v>1</v>
+      </c>
+      <c r="E207" t="str">
+        <v>32</v>
+      </c>
+      <c r="F207" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B208" t="str">
+        <v>515</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D208" t="str">
+        <v>1</v>
+      </c>
+      <c r="E208" t="str">
+        <v>33</v>
+      </c>
+      <c r="F208" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B209" t="str">
+        <v>515</v>
+      </c>
+      <c r="C209" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D209" t="str">
+        <v>1</v>
+      </c>
+      <c r="E209" t="str">
+        <v>34</v>
+      </c>
+      <c r="F209" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B210" t="str">
+        <v>515</v>
+      </c>
+      <c r="C210" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D210" t="str">
+        <v>1</v>
+      </c>
+      <c r="E210" t="str">
+        <v>35</v>
+      </c>
+      <c r="F210" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B211" t="str">
+        <v>515</v>
+      </c>
+      <c r="C211" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D211" t="str">
+        <v>1</v>
+      </c>
+      <c r="E211" t="str">
+        <v>36</v>
+      </c>
+      <c r="F211" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B212" t="str">
+        <v>515</v>
+      </c>
+      <c r="C212" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D212" t="str">
+        <v>1</v>
+      </c>
+      <c r="E212" t="str">
+        <v>37</v>
+      </c>
+      <c r="F212" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B213" t="str">
+        <v>515</v>
+      </c>
+      <c r="C213" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D213" t="str">
+        <v>1</v>
+      </c>
+      <c r="E213" t="str">
+        <v>38</v>
+      </c>
+      <c r="F213" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B214" t="str">
+        <v>515</v>
+      </c>
+      <c r="C214" t="str">
+        <v>2022-10-19T10:55:40-04:00</v>
+      </c>
+      <c r="D214" t="str">
+        <v>1</v>
+      </c>
+      <c r="E214" t="str">
+        <v>39</v>
+      </c>
+      <c r="F214" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B215" t="str">
+        <v>515</v>
+      </c>
+      <c r="C215" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D215" t="str">
+        <v>6</v>
+      </c>
+      <c r="E215" t="str">
+        <v>0</v>
+      </c>
+      <c r="F215" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B216" t="str">
+        <v>515</v>
+      </c>
+      <c r="C216" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D216" t="str">
+        <v>6</v>
+      </c>
+      <c r="E216" t="str">
+        <v>1</v>
+      </c>
+      <c r="F216" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B217" t="str">
+        <v>515</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D217" t="str">
+        <v>6</v>
+      </c>
+      <c r="E217" t="str">
+        <v>2</v>
+      </c>
+      <c r="F217" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B218" t="str">
+        <v>515</v>
+      </c>
+      <c r="C218" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D218" t="str">
+        <v>6</v>
+      </c>
+      <c r="E218" t="str">
+        <v>3</v>
+      </c>
+      <c r="F218" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B219" t="str">
+        <v>515</v>
+      </c>
+      <c r="C219" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D219" t="str">
+        <v>6</v>
+      </c>
+      <c r="E219" t="str">
+        <v>4</v>
+      </c>
+      <c r="F219" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B220" t="str">
+        <v>515</v>
+      </c>
+      <c r="C220" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D220" t="str">
+        <v>6</v>
+      </c>
+      <c r="E220" t="str">
+        <v>5</v>
+      </c>
+      <c r="F220" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B221" t="str">
+        <v>515</v>
+      </c>
+      <c r="C221" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D221" t="str">
+        <v>6</v>
+      </c>
+      <c r="E221" t="str">
+        <v>7</v>
+      </c>
+      <c r="F221" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B222" t="str">
+        <v>515</v>
+      </c>
+      <c r="C222" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D222" t="str">
+        <v>6</v>
+      </c>
+      <c r="E222" t="str">
+        <v>9</v>
+      </c>
+      <c r="F222" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B223" t="str">
+        <v>515</v>
+      </c>
+      <c r="C223" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D223" t="str">
+        <v>6</v>
+      </c>
+      <c r="E223" t="str">
+        <v>10</v>
+      </c>
+      <c r="F223" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B224" t="str">
+        <v>515</v>
+      </c>
+      <c r="C224" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D224" t="str">
+        <v>6</v>
+      </c>
+      <c r="E224" t="str">
+        <v>11</v>
+      </c>
+      <c r="F224" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B225" t="str">
+        <v>515</v>
+      </c>
+      <c r="C225" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D225" t="str">
+        <v>6</v>
+      </c>
+      <c r="E225" t="str">
+        <v>12</v>
+      </c>
+      <c r="F225" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B226" t="str">
+        <v>515</v>
+      </c>
+      <c r="C226" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D226" t="str">
+        <v>6</v>
+      </c>
+      <c r="E226" t="str">
+        <v>13</v>
+      </c>
+      <c r="F226" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B227" t="str">
+        <v>515</v>
+      </c>
+      <c r="C227" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D227" t="str">
+        <v>6</v>
+      </c>
+      <c r="E227" t="str">
+        <v>14</v>
+      </c>
+      <c r="F227" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B228" t="str">
+        <v>515</v>
+      </c>
+      <c r="C228" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D228" t="str">
+        <v>6</v>
+      </c>
+      <c r="E228" t="str">
+        <v>15</v>
+      </c>
+      <c r="F228" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B229" t="str">
+        <v>515</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D229" t="str">
+        <v>6</v>
+      </c>
+      <c r="E229" t="str">
+        <v>16</v>
+      </c>
+      <c r="F229" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B230" t="str">
+        <v>515</v>
+      </c>
+      <c r="C230" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D230" t="str">
+        <v>6</v>
+      </c>
+      <c r="E230" t="str">
+        <v>17</v>
+      </c>
+      <c r="F230" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B231" t="str">
+        <v>515</v>
+      </c>
+      <c r="C231" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D231" t="str">
+        <v>6</v>
+      </c>
+      <c r="E231" t="str">
+        <v>18</v>
+      </c>
+      <c r="F231" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B232" t="str">
+        <v>515</v>
+      </c>
+      <c r="C232" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D232" t="str">
+        <v>6</v>
+      </c>
+      <c r="E232" t="str">
+        <v>19</v>
+      </c>
+      <c r="F232" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B233" t="str">
+        <v>515</v>
+      </c>
+      <c r="C233" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D233" t="str">
+        <v>6</v>
+      </c>
+      <c r="E233" t="str">
+        <v>20</v>
+      </c>
+      <c r="F233" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B234" t="str">
+        <v>515</v>
+      </c>
+      <c r="C234" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D234" t="str">
+        <v>6</v>
+      </c>
+      <c r="E234" t="str">
+        <v>21</v>
+      </c>
+      <c r="F234" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B235" t="str">
+        <v>515</v>
+      </c>
+      <c r="C235" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D235" t="str">
+        <v>6</v>
+      </c>
+      <c r="E235" t="str">
+        <v>22</v>
+      </c>
+      <c r="F235" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B236" t="str">
+        <v>515</v>
+      </c>
+      <c r="C236" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D236" t="str">
+        <v>6</v>
+      </c>
+      <c r="E236" t="str">
+        <v>24</v>
+      </c>
+      <c r="F236" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B237" t="str">
+        <v>515</v>
+      </c>
+      <c r="C237" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D237" t="str">
+        <v>6</v>
+      </c>
+      <c r="E237" t="str">
+        <v>25</v>
+      </c>
+      <c r="F237" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B238" t="str">
+        <v>515</v>
+      </c>
+      <c r="C238" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D238" t="str">
+        <v>6</v>
+      </c>
+      <c r="E238" t="str">
+        <v>26</v>
+      </c>
+      <c r="F238" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B239" t="str">
+        <v>515</v>
+      </c>
+      <c r="C239" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D239" t="str">
+        <v>6</v>
+      </c>
+      <c r="E239" t="str">
+        <v>27</v>
+      </c>
+      <c r="F239" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B240" t="str">
+        <v>515</v>
+      </c>
+      <c r="C240" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D240" t="str">
+        <v>6</v>
+      </c>
+      <c r="E240" t="str">
+        <v>28</v>
+      </c>
+      <c r="F240" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B241" t="str">
+        <v>515</v>
+      </c>
+      <c r="C241" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D241" t="str">
+        <v>6</v>
+      </c>
+      <c r="E241" t="str">
+        <v>29</v>
+      </c>
+      <c r="F241" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B242" t="str">
+        <v>515</v>
+      </c>
+      <c r="C242" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D242" t="str">
+        <v>6</v>
+      </c>
+      <c r="E242" t="str">
+        <v>30</v>
+      </c>
+      <c r="F242" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B243" t="str">
+        <v>515</v>
+      </c>
+      <c r="C243" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D243" t="str">
+        <v>6</v>
+      </c>
+      <c r="E243" t="str">
+        <v>31</v>
+      </c>
+      <c r="F243" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B244" t="str">
+        <v>515</v>
+      </c>
+      <c r="C244" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D244" t="str">
+        <v>6</v>
+      </c>
+      <c r="E244" t="str">
+        <v>32</v>
+      </c>
+      <c r="F244" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B245" t="str">
+        <v>515</v>
+      </c>
+      <c r="C245" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D245" t="str">
+        <v>6</v>
+      </c>
+      <c r="E245" t="str">
+        <v>33</v>
+      </c>
+      <c r="F245" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B246" t="str">
+        <v>515</v>
+      </c>
+      <c r="C246" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D246" t="str">
+        <v>6</v>
+      </c>
+      <c r="E246" t="str">
+        <v>34</v>
+      </c>
+      <c r="F246" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B247" t="str">
+        <v>515</v>
+      </c>
+      <c r="C247" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D247" t="str">
+        <v>6</v>
+      </c>
+      <c r="E247" t="str">
+        <v>35</v>
+      </c>
+      <c r="F247" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B248" t="str">
+        <v>515</v>
+      </c>
+      <c r="C248" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D248" t="str">
+        <v>6</v>
+      </c>
+      <c r="E248" t="str">
+        <v>36</v>
+      </c>
+      <c r="F248" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B249" t="str">
+        <v>515</v>
+      </c>
+      <c r="C249" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D249" t="str">
+        <v>6</v>
+      </c>
+      <c r="E249" t="str">
+        <v>37</v>
+      </c>
+      <c r="F249" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B250" t="str">
+        <v>515</v>
+      </c>
+      <c r="C250" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D250" t="str">
+        <v>6</v>
+      </c>
+      <c r="E250" t="str">
+        <v>38</v>
+      </c>
+      <c r="F250" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B251" t="str">
+        <v>515</v>
+      </c>
+      <c r="C251" t="str">
+        <v>2022-10-19T10:55:33-04:00</v>
+      </c>
+      <c r="D251" t="str">
+        <v>6</v>
+      </c>
+      <c r="E251" t="str">
+        <v>39</v>
+      </c>
+      <c r="F251" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B252" t="str">
+        <v>515</v>
+      </c>
+      <c r="C252" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D252" t="str">
+        <v>1</v>
+      </c>
+      <c r="E252" t="str">
+        <v>0</v>
+      </c>
+      <c r="F252" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B253" t="str">
+        <v>515</v>
+      </c>
+      <c r="C253" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D253" t="str">
+        <v>1</v>
+      </c>
+      <c r="E253" t="str">
+        <v>1</v>
+      </c>
+      <c r="F253" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B254" t="str">
+        <v>515</v>
+      </c>
+      <c r="C254" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D254" t="str">
+        <v>1</v>
+      </c>
+      <c r="E254" t="str">
+        <v>2</v>
+      </c>
+      <c r="F254" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B255" t="str">
+        <v>515</v>
+      </c>
+      <c r="C255" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D255" t="str">
+        <v>1</v>
+      </c>
+      <c r="E255" t="str">
+        <v>3</v>
+      </c>
+      <c r="F255" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B256" t="str">
+        <v>515</v>
+      </c>
+      <c r="C256" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D256" t="str">
+        <v>1</v>
+      </c>
+      <c r="E256" t="str">
+        <v>4</v>
+      </c>
+      <c r="F256" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B257" t="str">
+        <v>515</v>
+      </c>
+      <c r="C257" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D257" t="str">
+        <v>1</v>
+      </c>
+      <c r="E257" t="str">
+        <v>5</v>
+      </c>
+      <c r="F257" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B258" t="str">
+        <v>515</v>
+      </c>
+      <c r="C258" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D258" t="str">
+        <v>1</v>
+      </c>
+      <c r="E258" t="str">
+        <v>7</v>
+      </c>
+      <c r="F258" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B259" t="str">
+        <v>515</v>
+      </c>
+      <c r="C259" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D259" t="str">
+        <v>1</v>
+      </c>
+      <c r="E259" t="str">
+        <v>8</v>
+      </c>
+      <c r="F259" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B260" t="str">
+        <v>515</v>
+      </c>
+      <c r="C260" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D260" t="str">
+        <v>1</v>
+      </c>
+      <c r="E260" t="str">
+        <v>9</v>
+      </c>
+      <c r="F260" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B261" t="str">
+        <v>515</v>
+      </c>
+      <c r="C261" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D261" t="str">
+        <v>1</v>
+      </c>
+      <c r="E261" t="str">
+        <v>10</v>
+      </c>
+      <c r="F261" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B262" t="str">
+        <v>515</v>
+      </c>
+      <c r="C262" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D262" t="str">
+        <v>1</v>
+      </c>
+      <c r="E262" t="str">
+        <v>11</v>
+      </c>
+      <c r="F262" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B263" t="str">
+        <v>515</v>
+      </c>
+      <c r="C263" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D263" t="str">
+        <v>1</v>
+      </c>
+      <c r="E263" t="str">
+        <v>12</v>
+      </c>
+      <c r="F263" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B264" t="str">
+        <v>515</v>
+      </c>
+      <c r="C264" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D264" t="str">
+        <v>1</v>
+      </c>
+      <c r="E264" t="str">
+        <v>13</v>
+      </c>
+      <c r="F264" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B265" t="str">
+        <v>515</v>
+      </c>
+      <c r="C265" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D265" t="str">
+        <v>1</v>
+      </c>
+      <c r="E265" t="str">
+        <v>14</v>
+      </c>
+      <c r="F265" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B266" t="str">
+        <v>515</v>
+      </c>
+      <c r="C266" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D266" t="str">
+        <v>1</v>
+      </c>
+      <c r="E266" t="str">
+        <v>15</v>
+      </c>
+      <c r="F266" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B267" t="str">
+        <v>515</v>
+      </c>
+      <c r="C267" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D267" t="str">
+        <v>1</v>
+      </c>
+      <c r="E267" t="str">
+        <v>16</v>
+      </c>
+      <c r="F267" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B268" t="str">
+        <v>515</v>
+      </c>
+      <c r="C268" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D268" t="str">
+        <v>1</v>
+      </c>
+      <c r="E268" t="str">
+        <v>17</v>
+      </c>
+      <c r="F268" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B269" t="str">
+        <v>515</v>
+      </c>
+      <c r="C269" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D269" t="str">
+        <v>1</v>
+      </c>
+      <c r="E269" t="str">
+        <v>18</v>
+      </c>
+      <c r="F269" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B270" t="str">
+        <v>515</v>
+      </c>
+      <c r="C270" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D270" t="str">
+        <v>1</v>
+      </c>
+      <c r="E270" t="str">
+        <v>19</v>
+      </c>
+      <c r="F270" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B271" t="str">
+        <v>515</v>
+      </c>
+      <c r="C271" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D271" t="str">
+        <v>1</v>
+      </c>
+      <c r="E271" t="str">
+        <v>20</v>
+      </c>
+      <c r="F271" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B272" t="str">
+        <v>515</v>
+      </c>
+      <c r="C272" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D272" t="str">
+        <v>1</v>
+      </c>
+      <c r="E272" t="str">
+        <v>21</v>
+      </c>
+      <c r="F272" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B273" t="str">
+        <v>515</v>
+      </c>
+      <c r="C273" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D273" t="str">
+        <v>1</v>
+      </c>
+      <c r="E273" t="str">
+        <v>22</v>
+      </c>
+      <c r="F273" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B274" t="str">
+        <v>515</v>
+      </c>
+      <c r="C274" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D274" t="str">
+        <v>1</v>
+      </c>
+      <c r="E274" t="str">
+        <v>23</v>
+      </c>
+      <c r="F274" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B275" t="str">
+        <v>515</v>
+      </c>
+      <c r="C275" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D275" t="str">
+        <v>1</v>
+      </c>
+      <c r="E275" t="str">
+        <v>24</v>
+      </c>
+      <c r="F275" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B276" t="str">
+        <v>515</v>
+      </c>
+      <c r="C276" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D276" t="str">
+        <v>1</v>
+      </c>
+      <c r="E276" t="str">
+        <v>25</v>
+      </c>
+      <c r="F276" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B277" t="str">
+        <v>515</v>
+      </c>
+      <c r="C277" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D277" t="str">
+        <v>1</v>
+      </c>
+      <c r="E277" t="str">
+        <v>26</v>
+      </c>
+      <c r="F277" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B278" t="str">
+        <v>515</v>
+      </c>
+      <c r="C278" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D278" t="str">
+        <v>1</v>
+      </c>
+      <c r="E278" t="str">
+        <v>27</v>
+      </c>
+      <c r="F278" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B279" t="str">
+        <v>515</v>
+      </c>
+      <c r="C279" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D279" t="str">
+        <v>1</v>
+      </c>
+      <c r="E279" t="str">
+        <v>28</v>
+      </c>
+      <c r="F279" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B280" t="str">
+        <v>515</v>
+      </c>
+      <c r="C280" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D280" t="str">
+        <v>1</v>
+      </c>
+      <c r="E280" t="str">
+        <v>29</v>
+      </c>
+      <c r="F280" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B281" t="str">
+        <v>515</v>
+      </c>
+      <c r="C281" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D281" t="str">
+        <v>1</v>
+      </c>
+      <c r="E281" t="str">
+        <v>30</v>
+      </c>
+      <c r="F281" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B282" t="str">
+        <v>515</v>
+      </c>
+      <c r="C282" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D282" t="str">
+        <v>1</v>
+      </c>
+      <c r="E282" t="str">
+        <v>31</v>
+      </c>
+      <c r="F282" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B283" t="str">
+        <v>515</v>
+      </c>
+      <c r="C283" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D283" t="str">
+        <v>1</v>
+      </c>
+      <c r="E283" t="str">
+        <v>32</v>
+      </c>
+      <c r="F283" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B284" t="str">
+        <v>515</v>
+      </c>
+      <c r="C284" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D284" t="str">
+        <v>1</v>
+      </c>
+      <c r="E284" t="str">
+        <v>33</v>
+      </c>
+      <c r="F284" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B285" t="str">
+        <v>515</v>
+      </c>
+      <c r="C285" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D285" t="str">
+        <v>1</v>
+      </c>
+      <c r="E285" t="str">
+        <v>34</v>
+      </c>
+      <c r="F285" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B286" t="str">
+        <v>515</v>
+      </c>
+      <c r="C286" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D286" t="str">
+        <v>1</v>
+      </c>
+      <c r="E286" t="str">
+        <v>35</v>
+      </c>
+      <c r="F286" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B287" t="str">
+        <v>515</v>
+      </c>
+      <c r="C287" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D287" t="str">
+        <v>1</v>
+      </c>
+      <c r="E287" t="str">
+        <v>36</v>
+      </c>
+      <c r="F287" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B288" t="str">
+        <v>515</v>
+      </c>
+      <c r="C288" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D288" t="str">
+        <v>1</v>
+      </c>
+      <c r="E288" t="str">
+        <v>37</v>
+      </c>
+      <c r="F288" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B289" t="str">
+        <v>515</v>
+      </c>
+      <c r="C289" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D289" t="str">
+        <v>1</v>
+      </c>
+      <c r="E289" t="str">
+        <v>38</v>
+      </c>
+      <c r="F289" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B290" t="str">
+        <v>515</v>
+      </c>
+      <c r="C290" t="str">
+        <v>2022-10-19T10:55:26-04:00</v>
+      </c>
+      <c r="D290" t="str">
+        <v>1</v>
+      </c>
+      <c r="E290" t="str">
+        <v>39</v>
+      </c>
+      <c r="F290" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B291" t="str">
+        <v>515</v>
+      </c>
+      <c r="C291" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D291" t="str">
+        <v>1</v>
+      </c>
+      <c r="E291" t="str">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B292" t="str">
+        <v>515</v>
+      </c>
+      <c r="C292" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D292" t="str">
+        <v>1</v>
+      </c>
+      <c r="E292" t="str">
+        <v>1</v>
+      </c>
+      <c r="F292" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B293" t="str">
+        <v>515</v>
+      </c>
+      <c r="C293" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D293" t="str">
+        <v>1</v>
+      </c>
+      <c r="E293" t="str">
+        <v>2</v>
+      </c>
+      <c r="F293" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B294" t="str">
+        <v>515</v>
+      </c>
+      <c r="C294" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D294" t="str">
+        <v>1</v>
+      </c>
+      <c r="E294" t="str">
+        <v>3</v>
+      </c>
+      <c r="F294" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B295" t="str">
+        <v>515</v>
+      </c>
+      <c r="C295" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D295" t="str">
+        <v>1</v>
+      </c>
+      <c r="E295" t="str">
+        <v>4</v>
+      </c>
+      <c r="F295" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B296" t="str">
+        <v>515</v>
+      </c>
+      <c r="C296" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D296" t="str">
+        <v>1</v>
+      </c>
+      <c r="E296" t="str">
+        <v>5</v>
+      </c>
+      <c r="F296" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B297" t="str">
+        <v>515</v>
+      </c>
+      <c r="C297" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D297" t="str">
+        <v>1</v>
+      </c>
+      <c r="E297" t="str">
+        <v>6</v>
+      </c>
+      <c r="F297" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B298" t="str">
+        <v>515</v>
+      </c>
+      <c r="C298" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D298" t="str">
+        <v>1</v>
+      </c>
+      <c r="E298" t="str">
+        <v>7</v>
+      </c>
+      <c r="F298" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B299" t="str">
+        <v>515</v>
+      </c>
+      <c r="C299" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D299" t="str">
+        <v>1</v>
+      </c>
+      <c r="E299" t="str">
+        <v>8</v>
+      </c>
+      <c r="F299" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B300" t="str">
+        <v>515</v>
+      </c>
+      <c r="C300" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D300" t="str">
+        <v>1</v>
+      </c>
+      <c r="E300" t="str">
+        <v>9</v>
+      </c>
+      <c r="F300" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B301" t="str">
+        <v>515</v>
+      </c>
+      <c r="C301" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D301" t="str">
+        <v>1</v>
+      </c>
+      <c r="E301" t="str">
+        <v>10</v>
+      </c>
+      <c r="F301" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B302" t="str">
+        <v>515</v>
+      </c>
+      <c r="C302" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D302" t="str">
+        <v>1</v>
+      </c>
+      <c r="E302" t="str">
+        <v>11</v>
+      </c>
+      <c r="F302" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B303" t="str">
+        <v>515</v>
+      </c>
+      <c r="C303" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D303" t="str">
+        <v>1</v>
+      </c>
+      <c r="E303" t="str">
+        <v>12</v>
+      </c>
+      <c r="F303" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B304" t="str">
+        <v>515</v>
+      </c>
+      <c r="C304" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D304" t="str">
+        <v>1</v>
+      </c>
+      <c r="E304" t="str">
+        <v>13</v>
+      </c>
+      <c r="F304" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B305" t="str">
+        <v>515</v>
+      </c>
+      <c r="C305" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D305" t="str">
+        <v>1</v>
+      </c>
+      <c r="E305" t="str">
+        <v>14</v>
+      </c>
+      <c r="F305" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B306" t="str">
+        <v>515</v>
+      </c>
+      <c r="C306" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D306" t="str">
+        <v>1</v>
+      </c>
+      <c r="E306" t="str">
+        <v>15</v>
+      </c>
+      <c r="F306" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B307" t="str">
+        <v>515</v>
+      </c>
+      <c r="C307" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D307" t="str">
+        <v>1</v>
+      </c>
+      <c r="E307" t="str">
+        <v>16</v>
+      </c>
+      <c r="F307" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B308" t="str">
+        <v>515</v>
+      </c>
+      <c r="C308" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D308" t="str">
+        <v>1</v>
+      </c>
+      <c r="E308" t="str">
+        <v>17</v>
+      </c>
+      <c r="F308" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B309" t="str">
+        <v>515</v>
+      </c>
+      <c r="C309" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D309" t="str">
+        <v>1</v>
+      </c>
+      <c r="E309" t="str">
+        <v>18</v>
+      </c>
+      <c r="F309" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B310" t="str">
+        <v>515</v>
+      </c>
+      <c r="C310" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D310" t="str">
+        <v>1</v>
+      </c>
+      <c r="E310" t="str">
+        <v>19</v>
+      </c>
+      <c r="F310" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B311" t="str">
+        <v>515</v>
+      </c>
+      <c r="C311" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D311" t="str">
+        <v>1</v>
+      </c>
+      <c r="E311" t="str">
+        <v>20</v>
+      </c>
+      <c r="F311" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B312" t="str">
+        <v>515</v>
+      </c>
+      <c r="C312" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D312" t="str">
+        <v>1</v>
+      </c>
+      <c r="E312" t="str">
+        <v>21</v>
+      </c>
+      <c r="F312" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B313" t="str">
+        <v>515</v>
+      </c>
+      <c r="C313" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D313" t="str">
+        <v>1</v>
+      </c>
+      <c r="E313" t="str">
+        <v>22</v>
+      </c>
+      <c r="F313" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B314" t="str">
+        <v>515</v>
+      </c>
+      <c r="C314" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D314" t="str">
+        <v>1</v>
+      </c>
+      <c r="E314" t="str">
+        <v>23</v>
+      </c>
+      <c r="F314" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B315" t="str">
+        <v>515</v>
+      </c>
+      <c r="C315" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D315" t="str">
+        <v>1</v>
+      </c>
+      <c r="E315" t="str">
+        <v>24</v>
+      </c>
+      <c r="F315" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B316" t="str">
+        <v>515</v>
+      </c>
+      <c r="C316" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D316" t="str">
+        <v>1</v>
+      </c>
+      <c r="E316" t="str">
+        <v>25</v>
+      </c>
+      <c r="F316" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B317" t="str">
+        <v>515</v>
+      </c>
+      <c r="C317" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D317" t="str">
+        <v>1</v>
+      </c>
+      <c r="E317" t="str">
+        <v>26</v>
+      </c>
+      <c r="F317" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B318" t="str">
+        <v>515</v>
+      </c>
+      <c r="C318" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D318" t="str">
+        <v>1</v>
+      </c>
+      <c r="E318" t="str">
+        <v>27</v>
+      </c>
+      <c r="F318" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B319" t="str">
+        <v>515</v>
+      </c>
+      <c r="C319" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D319" t="str">
+        <v>1</v>
+      </c>
+      <c r="E319" t="str">
+        <v>28</v>
+      </c>
+      <c r="F319" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B320" t="str">
+        <v>515</v>
+      </c>
+      <c r="C320" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D320" t="str">
+        <v>1</v>
+      </c>
+      <c r="E320" t="str">
+        <v>29</v>
+      </c>
+      <c r="F320" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B321" t="str">
+        <v>515</v>
+      </c>
+      <c r="C321" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D321" t="str">
+        <v>1</v>
+      </c>
+      <c r="E321" t="str">
+        <v>30</v>
+      </c>
+      <c r="F321" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B322" t="str">
+        <v>515</v>
+      </c>
+      <c r="C322" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D322" t="str">
+        <v>1</v>
+      </c>
+      <c r="E322" t="str">
+        <v>31</v>
+      </c>
+      <c r="F322" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B323" t="str">
+        <v>515</v>
+      </c>
+      <c r="C323" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D323" t="str">
+        <v>1</v>
+      </c>
+      <c r="E323" t="str">
+        <v>32</v>
+      </c>
+      <c r="F323" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B324" t="str">
+        <v>515</v>
+      </c>
+      <c r="C324" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D324" t="str">
+        <v>1</v>
+      </c>
+      <c r="E324" t="str">
+        <v>33</v>
+      </c>
+      <c r="F324" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B325" t="str">
+        <v>515</v>
+      </c>
+      <c r="C325" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D325" t="str">
+        <v>1</v>
+      </c>
+      <c r="E325" t="str">
+        <v>34</v>
+      </c>
+      <c r="F325" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B326" t="str">
+        <v>515</v>
+      </c>
+      <c r="C326" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D326" t="str">
+        <v>1</v>
+      </c>
+      <c r="E326" t="str">
+        <v>35</v>
+      </c>
+      <c r="F326" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B327" t="str">
+        <v>515</v>
+      </c>
+      <c r="C327" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D327" t="str">
+        <v>1</v>
+      </c>
+      <c r="E327" t="str">
+        <v>36</v>
+      </c>
+      <c r="F327" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B328" t="str">
+        <v>515</v>
+      </c>
+      <c r="C328" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D328" t="str">
+        <v>1</v>
+      </c>
+      <c r="E328" t="str">
+        <v>37</v>
+      </c>
+      <c r="F328" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B329" t="str">
+        <v>515</v>
+      </c>
+      <c r="C329" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D329" t="str">
+        <v>1</v>
+      </c>
+      <c r="E329" t="str">
+        <v>38</v>
+      </c>
+      <c r="F329" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>TxPor</v>
+      </c>
+      <c r="B330" t="str">
+        <v>515</v>
+      </c>
+      <c r="C330" t="str">
+        <v>2022-10-19T10:55:09-04:00</v>
+      </c>
+      <c r="D330" t="str">
+        <v>1</v>
+      </c>
+      <c r="E330" t="str">
+        <v>39</v>
+      </c>
+      <c r="F330" t="str">
         <v>1</v>
       </c>
     </row>
@@ -5271,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -5329,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -5494,10 +8214,1056 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>181</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6420,6 +10186,635 @@
         <f>=SUM(RoundTable!H2:H12)</f>
       </c>
     </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>=SUM(RoundTable!B2:B13)</f>
+      </c>
+      <c r="C13">
+        <f>=SUM(RoundTable!D2:D13)</f>
+      </c>
+      <c r="D13">
+        <f>=AVERAGE(RoundTable!F2:F13)</f>
+      </c>
+      <c r="E13">
+        <f>=SUM(RoundTable!H2:H13)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>=SUM(RoundTable!B2:B14)</f>
+      </c>
+      <c r="C14">
+        <f>=SUM(RoundTable!D2:D14)</f>
+      </c>
+      <c r="D14">
+        <f>=AVERAGE(RoundTable!F2:F14)</f>
+      </c>
+      <c r="E14">
+        <f>=SUM(RoundTable!H2:H14)</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>=SUM(RoundTable!B2:B15)</f>
+      </c>
+      <c r="C15">
+        <f>=SUM(RoundTable!D2:D15)</f>
+      </c>
+      <c r="D15">
+        <f>=AVERAGE(RoundTable!F2:F15)</f>
+      </c>
+      <c r="E15">
+        <f>=SUM(RoundTable!H2:H15)</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>=SUM(RoundTable!B2:B16)</f>
+      </c>
+      <c r="C16">
+        <f>=SUM(RoundTable!D2:D16)</f>
+      </c>
+      <c r="D16">
+        <f>=AVERAGE(RoundTable!F2:F16)</f>
+      </c>
+      <c r="E16">
+        <f>=SUM(RoundTable!H2:H16)</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <f>=SUM(RoundTable!B2:B17)</f>
+      </c>
+      <c r="C17">
+        <f>=SUM(RoundTable!D2:D17)</f>
+      </c>
+      <c r="D17">
+        <f>=AVERAGE(RoundTable!F2:F17)</f>
+      </c>
+      <c r="E17">
+        <f>=SUM(RoundTable!H2:H17)</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <f>=SUM(RoundTable!B2:B18)</f>
+      </c>
+      <c r="C18">
+        <f>=SUM(RoundTable!D2:D18)</f>
+      </c>
+      <c r="D18">
+        <f>=AVERAGE(RoundTable!F2:F18)</f>
+      </c>
+      <c r="E18">
+        <f>=SUM(RoundTable!H2:H18)</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <f>=SUM(RoundTable!B2:B19)</f>
+      </c>
+      <c r="C19">
+        <f>=SUM(RoundTable!D2:D19)</f>
+      </c>
+      <c r="D19">
+        <f>=AVERAGE(RoundTable!F2:F19)</f>
+      </c>
+      <c r="E19">
+        <f>=SUM(RoundTable!H2:H19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <f>=SUM(RoundTable!B2:B20)</f>
+      </c>
+      <c r="C20">
+        <f>=SUM(RoundTable!D2:D20)</f>
+      </c>
+      <c r="D20">
+        <f>=AVERAGE(RoundTable!F2:F20)</f>
+      </c>
+      <c r="E20">
+        <f>=SUM(RoundTable!H2:H20)</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f>=SUM(RoundTable!B2:B21)</f>
+      </c>
+      <c r="C21">
+        <f>=SUM(RoundTable!D2:D21)</f>
+      </c>
+      <c r="D21">
+        <f>=AVERAGE(RoundTable!F2:F21)</f>
+      </c>
+      <c r="E21">
+        <f>=SUM(RoundTable!H2:H21)</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f>=SUM(RoundTable!B2:B22)</f>
+      </c>
+      <c r="C22">
+        <f>=SUM(RoundTable!D2:D22)</f>
+      </c>
+      <c r="D22">
+        <f>=AVERAGE(RoundTable!F2:F22)</f>
+      </c>
+      <c r="E22">
+        <f>=SUM(RoundTable!H2:H22)</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f>=SUM(RoundTable!B2:B23)</f>
+      </c>
+      <c r="C23">
+        <f>=SUM(RoundTable!D2:D23)</f>
+      </c>
+      <c r="D23">
+        <f>=AVERAGE(RoundTable!F2:F23)</f>
+      </c>
+      <c r="E23">
+        <f>=SUM(RoundTable!H2:H23)</f>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f>=SUM(RoundTable!B2:B24)</f>
+      </c>
+      <c r="C24">
+        <f>=SUM(RoundTable!D2:D24)</f>
+      </c>
+      <c r="D24">
+        <f>=AVERAGE(RoundTable!F2:F24)</f>
+      </c>
+      <c r="E24">
+        <f>=SUM(RoundTable!H2:H24)</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f>=SUM(RoundTable!B2:B25)</f>
+      </c>
+      <c r="C25">
+        <f>=SUM(RoundTable!D2:D25)</f>
+      </c>
+      <c r="D25">
+        <f>=AVERAGE(RoundTable!F2:F25)</f>
+      </c>
+      <c r="E25">
+        <f>=SUM(RoundTable!H2:H25)</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <f>=SUM(RoundTable!B2:B26)</f>
+      </c>
+      <c r="C26">
+        <f>=SUM(RoundTable!D2:D26)</f>
+      </c>
+      <c r="D26">
+        <f>=AVERAGE(RoundTable!F2:F26)</f>
+      </c>
+      <c r="E26">
+        <f>=SUM(RoundTable!H2:H26)</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <f>=SUM(RoundTable!B2:B27)</f>
+      </c>
+      <c r="C27">
+        <f>=SUM(RoundTable!D2:D27)</f>
+      </c>
+      <c r="D27">
+        <f>=AVERAGE(RoundTable!F2:F27)</f>
+      </c>
+      <c r="E27">
+        <f>=SUM(RoundTable!H2:H27)</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <f>=SUM(RoundTable!B2:B28)</f>
+      </c>
+      <c r="C28">
+        <f>=SUM(RoundTable!D2:D28)</f>
+      </c>
+      <c r="D28">
+        <f>=AVERAGE(RoundTable!F2:F28)</f>
+      </c>
+      <c r="E28">
+        <f>=SUM(RoundTable!H2:H28)</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <f>=SUM(RoundTable!B2:B29)</f>
+      </c>
+      <c r="C29">
+        <f>=SUM(RoundTable!D2:D29)</f>
+      </c>
+      <c r="D29">
+        <f>=AVERAGE(RoundTable!F2:F29)</f>
+      </c>
+      <c r="E29">
+        <f>=SUM(RoundTable!H2:H29)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <f>=SUM(RoundTable!B2:B30)</f>
+      </c>
+      <c r="C30">
+        <f>=SUM(RoundTable!D2:D30)</f>
+      </c>
+      <c r="D30">
+        <f>=AVERAGE(RoundTable!F2:F30)</f>
+      </c>
+      <c r="E30">
+        <f>=SUM(RoundTable!H2:H30)</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <f>=SUM(RoundTable!B2:B31)</f>
+      </c>
+      <c r="C31">
+        <f>=SUM(RoundTable!D2:D31)</f>
+      </c>
+      <c r="D31">
+        <f>=AVERAGE(RoundTable!F2:F31)</f>
+      </c>
+      <c r="E31">
+        <f>=SUM(RoundTable!H2:H31)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>=SUM(RoundTable!B2:B32)</f>
+      </c>
+      <c r="C32">
+        <f>=SUM(RoundTable!D2:D32)</f>
+      </c>
+      <c r="D32">
+        <f>=AVERAGE(RoundTable!F2:F32)</f>
+      </c>
+      <c r="E32">
+        <f>=SUM(RoundTable!H2:H32)</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <f>=SUM(RoundTable!B2:B33)</f>
+      </c>
+      <c r="C33">
+        <f>=SUM(RoundTable!D2:D33)</f>
+      </c>
+      <c r="D33">
+        <f>=AVERAGE(RoundTable!F2:F33)</f>
+      </c>
+      <c r="E33">
+        <f>=SUM(RoundTable!H2:H33)</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <f>=SUM(RoundTable!B2:B34)</f>
+      </c>
+      <c r="C34">
+        <f>=SUM(RoundTable!D2:D34)</f>
+      </c>
+      <c r="D34">
+        <f>=AVERAGE(RoundTable!F2:F34)</f>
+      </c>
+      <c r="E34">
+        <f>=SUM(RoundTable!H2:H34)</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <f>=SUM(RoundTable!B2:B35)</f>
+      </c>
+      <c r="C35">
+        <f>=SUM(RoundTable!D2:D35)</f>
+      </c>
+      <c r="D35">
+        <f>=AVERAGE(RoundTable!F2:F35)</f>
+      </c>
+      <c r="E35">
+        <f>=SUM(RoundTable!H2:H35)</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <f>=SUM(RoundTable!B2:B36)</f>
+      </c>
+      <c r="C36">
+        <f>=SUM(RoundTable!D2:D36)</f>
+      </c>
+      <c r="D36">
+        <f>=AVERAGE(RoundTable!F2:F36)</f>
+      </c>
+      <c r="E36">
+        <f>=SUM(RoundTable!H2:H36)</f>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <f>=SUM(RoundTable!B2:B37)</f>
+      </c>
+      <c r="C37">
+        <f>=SUM(RoundTable!D2:D37)</f>
+      </c>
+      <c r="D37">
+        <f>=AVERAGE(RoundTable!F2:F37)</f>
+      </c>
+      <c r="E37">
+        <f>=SUM(RoundTable!H2:H37)</f>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f>=SUM(RoundTable!B2:B38)</f>
+      </c>
+      <c r="C38">
+        <f>=SUM(RoundTable!D2:D38)</f>
+      </c>
+      <c r="D38">
+        <f>=AVERAGE(RoundTable!F2:F38)</f>
+      </c>
+      <c r="E38">
+        <f>=SUM(RoundTable!H2:H38)</f>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <f>=SUM(RoundTable!B2:B39)</f>
+      </c>
+      <c r="C39">
+        <f>=SUM(RoundTable!D2:D39)</f>
+      </c>
+      <c r="D39">
+        <f>=AVERAGE(RoundTable!F2:F39)</f>
+      </c>
+      <c r="E39">
+        <f>=SUM(RoundTable!H2:H39)</f>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f>=SUM(RoundTable!B2:B40)</f>
+      </c>
+      <c r="C40">
+        <f>=SUM(RoundTable!D2:D40)</f>
+      </c>
+      <c r="D40">
+        <f>=AVERAGE(RoundTable!F2:F40)</f>
+      </c>
+      <c r="E40">
+        <f>=SUM(RoundTable!H2:H40)</f>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <f>=SUM(RoundTable!B2:B41)</f>
+      </c>
+      <c r="C41">
+        <f>=SUM(RoundTable!D2:D41)</f>
+      </c>
+      <c r="D41">
+        <f>=AVERAGE(RoundTable!F2:F41)</f>
+      </c>
+      <c r="E41">
+        <f>=SUM(RoundTable!H2:H41)</f>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f>=SUM(RoundTable!B2:B42)</f>
+      </c>
+      <c r="C42">
+        <f>=SUM(RoundTable!D2:D42)</f>
+      </c>
+      <c r="D42">
+        <f>=AVERAGE(RoundTable!F2:F42)</f>
+      </c>
+      <c r="E42">
+        <f>=SUM(RoundTable!H2:H42)</f>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <f>=SUM(RoundTable!B2:B43)</f>
+      </c>
+      <c r="C43">
+        <f>=SUM(RoundTable!D2:D43)</f>
+      </c>
+      <c r="D43">
+        <f>=AVERAGE(RoundTable!F2:F43)</f>
+      </c>
+      <c r="E43">
+        <f>=SUM(RoundTable!H2:H43)</f>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <f>=SUM(RoundTable!B2:B44)</f>
+      </c>
+      <c r="C44">
+        <f>=SUM(RoundTable!D2:D44)</f>
+      </c>
+      <c r="D44">
+        <f>=AVERAGE(RoundTable!F2:F44)</f>
+      </c>
+      <c r="E44">
+        <f>=SUM(RoundTable!H2:H44)</f>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <f>=SUM(RoundTable!B2:B45)</f>
+      </c>
+      <c r="C45">
+        <f>=SUM(RoundTable!D2:D45)</f>
+      </c>
+      <c r="D45">
+        <f>=AVERAGE(RoundTable!F2:F45)</f>
+      </c>
+      <c r="E45">
+        <f>=SUM(RoundTable!H2:H45)</f>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <f>=SUM(RoundTable!B2:B46)</f>
+      </c>
+      <c r="C46">
+        <f>=SUM(RoundTable!D2:D46)</f>
+      </c>
+      <c r="D46">
+        <f>=AVERAGE(RoundTable!F2:F46)</f>
+      </c>
+      <c r="E46">
+        <f>=SUM(RoundTable!H2:H46)</f>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <f>=SUM(RoundTable!B2:B47)</f>
+      </c>
+      <c r="C47">
+        <f>=SUM(RoundTable!D2:D47)</f>
+      </c>
+      <c r="D47">
+        <f>=AVERAGE(RoundTable!F2:F47)</f>
+      </c>
+      <c r="E47">
+        <f>=SUM(RoundTable!H2:H47)</f>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <f>=SUM(RoundTable!B2:B48)</f>
+      </c>
+      <c r="C48">
+        <f>=SUM(RoundTable!D2:D48)</f>
+      </c>
+      <c r="D48">
+        <f>=AVERAGE(RoundTable!F2:F48)</f>
+      </c>
+      <c r="E48">
+        <f>=SUM(RoundTable!H2:H48)</f>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <f>=SUM(RoundTable!B2:B49)</f>
+      </c>
+      <c r="C49">
+        <f>=SUM(RoundTable!D2:D49)</f>
+      </c>
+      <c r="D49">
+        <f>=AVERAGE(RoundTable!F2:F49)</f>
+      </c>
+      <c r="E49">
+        <f>=SUM(RoundTable!H2:H49)</f>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>